--- a/firsttest.xlsx
+++ b/firsttest.xlsx
@@ -14438,7 +14438,7 @@
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="244">
+  <cellXfs count="247">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="326">
@@ -15032,20 +15032,27 @@
     <xf numFmtId="0" fontId="92" fillId="0" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4382">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2188">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="92" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3135">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="92" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2189">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2189">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="92" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2188">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="29" fillId="0" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -22865,7 +22872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW31"/>
+  <dimension ref="A1:ER31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
@@ -22909,6 +22916,61 @@
     <col width="15" customWidth="1" min="45" max="45"/>
     <col width="15" customWidth="1" min="46" max="46"/>
     <col width="15" customWidth="1" min="47" max="47"/>
+    <col width="15" customWidth="1" min="52" max="52"/>
+    <col width="15" customWidth="1" min="53" max="53"/>
+    <col width="15" customWidth="1" min="54" max="54"/>
+    <col width="15" customWidth="1" min="55" max="55"/>
+    <col width="15" customWidth="1" min="56" max="56"/>
+    <col width="15" customWidth="1" min="61" max="61"/>
+    <col width="15" customWidth="1" min="62" max="62"/>
+    <col width="15" customWidth="1" min="63" max="63"/>
+    <col width="15" customWidth="1" min="64" max="64"/>
+    <col width="15" customWidth="1" min="65" max="65"/>
+    <col width="15" customWidth="1" min="70" max="70"/>
+    <col width="15" customWidth="1" min="71" max="71"/>
+    <col width="15" customWidth="1" min="72" max="72"/>
+    <col width="15" customWidth="1" min="73" max="73"/>
+    <col width="15" customWidth="1" min="74" max="74"/>
+    <col width="15" customWidth="1" min="79" max="79"/>
+    <col width="15" customWidth="1" min="80" max="80"/>
+    <col width="15" customWidth="1" min="81" max="81"/>
+    <col width="15" customWidth="1" min="82" max="82"/>
+    <col width="15" customWidth="1" min="83" max="83"/>
+    <col width="15" customWidth="1" min="88" max="88"/>
+    <col width="15" customWidth="1" min="89" max="89"/>
+    <col width="15" customWidth="1" min="90" max="90"/>
+    <col width="15" customWidth="1" min="91" max="91"/>
+    <col width="15" customWidth="1" min="92" max="92"/>
+    <col width="15" customWidth="1" min="97" max="97"/>
+    <col width="15" customWidth="1" min="98" max="98"/>
+    <col width="15" customWidth="1" min="99" max="99"/>
+    <col width="15" customWidth="1" min="100" max="100"/>
+    <col width="15" customWidth="1" min="101" max="101"/>
+    <col width="15" customWidth="1" min="106" max="106"/>
+    <col width="15" customWidth="1" min="107" max="107"/>
+    <col width="15" customWidth="1" min="108" max="108"/>
+    <col width="15" customWidth="1" min="109" max="109"/>
+    <col width="15" customWidth="1" min="110" max="110"/>
+    <col width="15" customWidth="1" min="115" max="115"/>
+    <col width="15" customWidth="1" min="116" max="116"/>
+    <col width="15" customWidth="1" min="117" max="117"/>
+    <col width="15" customWidth="1" min="118" max="118"/>
+    <col width="15" customWidth="1" min="119" max="119"/>
+    <col width="15" customWidth="1" min="124" max="124"/>
+    <col width="15" customWidth="1" min="125" max="125"/>
+    <col width="15" customWidth="1" min="126" max="126"/>
+    <col width="15" customWidth="1" min="127" max="127"/>
+    <col width="15" customWidth="1" min="128" max="128"/>
+    <col width="15" customWidth="1" min="133" max="133"/>
+    <col width="15" customWidth="1" min="134" max="134"/>
+    <col width="15" customWidth="1" min="135" max="135"/>
+    <col width="15" customWidth="1" min="136" max="136"/>
+    <col width="15" customWidth="1" min="137" max="137"/>
+    <col width="15" customWidth="1" min="142" max="142"/>
+    <col width="15" customWidth="1" min="143" max="143"/>
+    <col width="15" customWidth="1" min="144" max="144"/>
+    <col width="15" customWidth="1" min="145" max="145"/>
+    <col width="15" customWidth="1" min="146" max="146"/>
   </cols>
   <sheetData>
     <row r="1" ht="63.6" customFormat="1" customHeight="1" s="113">
@@ -23130,6 +23192,336 @@
           <t>CAD版本</t>
         </is>
       </c>
+      <c r="BA1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号位号</t>
+        </is>
+      </c>
+      <c r="BB1" s="195" t="inlineStr">
+        <is>
+          <t>CAD扩展码</t>
+        </is>
+      </c>
+      <c r="BC1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号说明</t>
+        </is>
+      </c>
+      <c r="BD1" s="195" t="inlineStr">
+        <is>
+          <t>CAD安全分级/分组</t>
+        </is>
+      </c>
+      <c r="BE1" s="195" t="inlineStr">
+        <is>
+          <t>CAD图号</t>
+        </is>
+      </c>
+      <c r="BF1" s="195" t="inlineStr">
+        <is>
+          <t>CAD版本</t>
+        </is>
+      </c>
+      <c r="BJ1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号位号</t>
+        </is>
+      </c>
+      <c r="BK1" s="195" t="inlineStr">
+        <is>
+          <t>CAD扩展码</t>
+        </is>
+      </c>
+      <c r="BL1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号说明</t>
+        </is>
+      </c>
+      <c r="BM1" s="195" t="inlineStr">
+        <is>
+          <t>CAD安全分级/分组</t>
+        </is>
+      </c>
+      <c r="BN1" s="195" t="inlineStr">
+        <is>
+          <t>CAD图号</t>
+        </is>
+      </c>
+      <c r="BO1" s="195" t="inlineStr">
+        <is>
+          <t>CAD版本</t>
+        </is>
+      </c>
+      <c r="BS1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号位号</t>
+        </is>
+      </c>
+      <c r="BT1" s="195" t="inlineStr">
+        <is>
+          <t>CAD扩展码</t>
+        </is>
+      </c>
+      <c r="BU1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号说明</t>
+        </is>
+      </c>
+      <c r="BV1" s="195" t="inlineStr">
+        <is>
+          <t>CAD安全分级/分组</t>
+        </is>
+      </c>
+      <c r="BW1" s="195" t="inlineStr">
+        <is>
+          <t>CAD图号</t>
+        </is>
+      </c>
+      <c r="BX1" s="195" t="inlineStr">
+        <is>
+          <t>CAD版本</t>
+        </is>
+      </c>
+      <c r="CB1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号位号</t>
+        </is>
+      </c>
+      <c r="CC1" s="195" t="inlineStr">
+        <is>
+          <t>CAD扩展码</t>
+        </is>
+      </c>
+      <c r="CD1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号说明</t>
+        </is>
+      </c>
+      <c r="CE1" s="195" t="inlineStr">
+        <is>
+          <t>CAD安全分级/分组</t>
+        </is>
+      </c>
+      <c r="CF1" s="195" t="inlineStr">
+        <is>
+          <t>CAD图号</t>
+        </is>
+      </c>
+      <c r="CG1" s="195" t="inlineStr">
+        <is>
+          <t>CAD版本</t>
+        </is>
+      </c>
+      <c r="CK1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号位号</t>
+        </is>
+      </c>
+      <c r="CL1" s="195" t="inlineStr">
+        <is>
+          <t>CAD扩展码</t>
+        </is>
+      </c>
+      <c r="CM1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号说明</t>
+        </is>
+      </c>
+      <c r="CN1" s="195" t="inlineStr">
+        <is>
+          <t>CAD安全分级/分组</t>
+        </is>
+      </c>
+      <c r="CO1" s="195" t="inlineStr">
+        <is>
+          <t>CAD图号</t>
+        </is>
+      </c>
+      <c r="CP1" s="195" t="inlineStr">
+        <is>
+          <t>CAD版本</t>
+        </is>
+      </c>
+      <c r="CT1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号位号</t>
+        </is>
+      </c>
+      <c r="CU1" s="195" t="inlineStr">
+        <is>
+          <t>CAD扩展码</t>
+        </is>
+      </c>
+      <c r="CV1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号说明</t>
+        </is>
+      </c>
+      <c r="CW1" s="195" t="inlineStr">
+        <is>
+          <t>CAD安全分级/分组</t>
+        </is>
+      </c>
+      <c r="CX1" s="195" t="inlineStr">
+        <is>
+          <t>CAD图号</t>
+        </is>
+      </c>
+      <c r="CY1" s="195" t="inlineStr">
+        <is>
+          <t>CAD版本</t>
+        </is>
+      </c>
+      <c r="DC1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号位号</t>
+        </is>
+      </c>
+      <c r="DD1" s="195" t="inlineStr">
+        <is>
+          <t>CAD扩展码</t>
+        </is>
+      </c>
+      <c r="DE1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号说明</t>
+        </is>
+      </c>
+      <c r="DF1" s="195" t="inlineStr">
+        <is>
+          <t>CAD安全分级/分组</t>
+        </is>
+      </c>
+      <c r="DG1" s="195" t="inlineStr">
+        <is>
+          <t>CAD图号</t>
+        </is>
+      </c>
+      <c r="DH1" s="195" t="inlineStr">
+        <is>
+          <t>CAD版本</t>
+        </is>
+      </c>
+      <c r="DL1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号位号</t>
+        </is>
+      </c>
+      <c r="DM1" s="195" t="inlineStr">
+        <is>
+          <t>CAD扩展码</t>
+        </is>
+      </c>
+      <c r="DN1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号说明</t>
+        </is>
+      </c>
+      <c r="DO1" s="195" t="inlineStr">
+        <is>
+          <t>CAD安全分级/分组</t>
+        </is>
+      </c>
+      <c r="DP1" s="195" t="inlineStr">
+        <is>
+          <t>CAD图号</t>
+        </is>
+      </c>
+      <c r="DQ1" s="195" t="inlineStr">
+        <is>
+          <t>CAD版本</t>
+        </is>
+      </c>
+      <c r="DU1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号位号</t>
+        </is>
+      </c>
+      <c r="DV1" s="195" t="inlineStr">
+        <is>
+          <t>CAD扩展码</t>
+        </is>
+      </c>
+      <c r="DW1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号说明</t>
+        </is>
+      </c>
+      <c r="DX1" s="195" t="inlineStr">
+        <is>
+          <t>CAD安全分级/分组</t>
+        </is>
+      </c>
+      <c r="DY1" s="195" t="inlineStr">
+        <is>
+          <t>CAD图号</t>
+        </is>
+      </c>
+      <c r="DZ1" s="195" t="inlineStr">
+        <is>
+          <t>CAD版本</t>
+        </is>
+      </c>
+      <c r="ED1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号位号</t>
+        </is>
+      </c>
+      <c r="EE1" s="195" t="inlineStr">
+        <is>
+          <t>CAD扩展码</t>
+        </is>
+      </c>
+      <c r="EF1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号说明</t>
+        </is>
+      </c>
+      <c r="EG1" s="195" t="inlineStr">
+        <is>
+          <t>CAD安全分级/分组</t>
+        </is>
+      </c>
+      <c r="EH1" s="195" t="inlineStr">
+        <is>
+          <t>CAD图号</t>
+        </is>
+      </c>
+      <c r="EI1" s="195" t="inlineStr">
+        <is>
+          <t>CAD版本</t>
+        </is>
+      </c>
+      <c r="EM1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号位号</t>
+        </is>
+      </c>
+      <c r="EN1" s="195" t="inlineStr">
+        <is>
+          <t>CAD扩展码</t>
+        </is>
+      </c>
+      <c r="EO1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号说明</t>
+        </is>
+      </c>
+      <c r="EP1" s="195" t="inlineStr">
+        <is>
+          <t>CAD安全分级/分组</t>
+        </is>
+      </c>
+      <c r="EQ1" s="195" t="inlineStr">
+        <is>
+          <t>CAD图号</t>
+        </is>
+      </c>
+      <c r="ER1" s="195" t="inlineStr">
+        <is>
+          <t>CAD版本</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="30.95" customFormat="1" customHeight="1" s="113">
       <c r="A2" s="74" t="n">
@@ -23245,6 +23637,61 @@
           <t>无描述</t>
         </is>
       </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BU2" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CD2" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CM2" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CV2" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DE2" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DN2" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DW2" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EF2" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EO2" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="30.95" customFormat="1" customHeight="1" s="113">
       <c r="A3" s="118" t="n">
@@ -23359,6 +23806,61 @@
           <t>无描述</t>
         </is>
       </c>
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BU3" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CD3" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CM3" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CV3" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DE3" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DN3" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DW3" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EF3" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EO3" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="30.95" customHeight="1">
       <c r="A4" s="118" t="n">
@@ -23474,6 +23976,61 @@
           <t>无描述</t>
         </is>
       </c>
+      <c r="BC4" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BU4" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CD4" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CM4" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CV4" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DE4" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DN4" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DW4" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EF4" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EO4" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="30.95" customHeight="1">
       <c r="A5" s="118" t="n">
@@ -23588,6 +24145,61 @@
           <t>无描述</t>
         </is>
       </c>
+      <c r="BC5" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BL5" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BU5" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CD5" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CM5" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CV5" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DE5" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DN5" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DW5" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EF5" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EO5" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="30.95" customHeight="1">
       <c r="A6" s="118" t="n">
@@ -23703,6 +24315,61 @@
           <t>无描述</t>
         </is>
       </c>
+      <c r="BC6" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BL6" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BU6" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CD6" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CM6" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CV6" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DE6" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DN6" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DW6" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EF6" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EO6" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="30.95" customHeight="1">
       <c r="A7" s="118" t="n">
@@ -23817,6 +24484,61 @@
           <t>无描述</t>
         </is>
       </c>
+      <c r="BC7" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BL7" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BU7" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CD7" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CM7" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CV7" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DE7" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DN7" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DW7" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EF7" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EO7" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="30.95" customHeight="1">
       <c r="A8" s="118" t="n">
@@ -23932,6 +24654,61 @@
           <t>无描述</t>
         </is>
       </c>
+      <c r="BC8" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BL8" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BU8" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CD8" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CM8" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CV8" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DE8" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DN8" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DW8" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EF8" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EO8" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="30.95" customHeight="1">
       <c r="A9" s="118" t="n">
@@ -24046,6 +24823,61 @@
           <t>无描述</t>
         </is>
       </c>
+      <c r="BC9" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BL9" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BU9" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CD9" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CM9" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CV9" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DE9" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DN9" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DW9" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EF9" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EO9" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="30.95" customHeight="1">
       <c r="A10" s="118" t="n">
@@ -24161,6 +24993,61 @@
           <t>无描述</t>
         </is>
       </c>
+      <c r="BC10" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BL10" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BU10" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CD10" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CM10" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CV10" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DE10" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DN10" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DW10" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EF10" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EO10" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="30.95" customHeight="1">
       <c r="A11" s="118" t="n">
@@ -24276,6 +25163,61 @@
           <t>无描述</t>
         </is>
       </c>
+      <c r="BC11" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BL11" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BU11" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CD11" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CM11" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CV11" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DE11" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DN11" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DW11" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EF11" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EO11" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="30.95" customHeight="1">
       <c r="A12" s="118" t="n">
@@ -24391,6 +25333,61 @@
           <t>无描述</t>
         </is>
       </c>
+      <c r="BC12" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BL12" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BU12" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CD12" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CM12" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CV12" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DE12" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DN12" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DW12" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EF12" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EO12" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="30.95" customHeight="1">
       <c r="A13" s="118" t="n">
@@ -24506,6 +25503,61 @@
           <t>无描述</t>
         </is>
       </c>
+      <c r="BC13" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BL13" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BU13" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CD13" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CM13" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CV13" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DE13" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DN13" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DW13" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EF13" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EO13" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="30.95" customHeight="1">
       <c r="A14" s="118" t="n">
@@ -24621,6 +25673,61 @@
           <t>无描述</t>
         </is>
       </c>
+      <c r="BC14" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BL14" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BU14" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CD14" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CM14" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CV14" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DE14" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DN14" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DW14" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EF14" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EO14" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="30.95" customHeight="1">
       <c r="A15" s="118" t="n">
@@ -24736,6 +25843,61 @@
           <t>无描述</t>
         </is>
       </c>
+      <c r="BC15" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BL15" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BU15" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CD15" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CM15" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CV15" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DE15" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DN15" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DW15" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EF15" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EO15" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="30.95" customHeight="1">
       <c r="A16" s="118" t="n">
@@ -24851,6 +26013,61 @@
           <t>无描述</t>
         </is>
       </c>
+      <c r="BC16" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BL16" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BU16" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CD16" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CM16" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CV16" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DE16" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DN16" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DW16" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EF16" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EO16" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="30.95" customHeight="1">
       <c r="A17" s="118" t="n">
@@ -24966,6 +26183,61 @@
           <t>无描述</t>
         </is>
       </c>
+      <c r="BC17" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BL17" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BU17" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CD17" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CM17" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CV17" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DE17" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DN17" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DW17" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EF17" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EO17" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="30.95" customHeight="1">
       <c r="A18" s="118" t="n">
@@ -25081,6 +26353,61 @@
           <t>无描述</t>
         </is>
       </c>
+      <c r="BC18" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BL18" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BU18" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CD18" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CM18" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CV18" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DE18" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DN18" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DW18" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EF18" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EO18" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="30.95" customHeight="1">
       <c r="A19" s="118" t="n">
@@ -25196,6 +26523,61 @@
           <t>无描述</t>
         </is>
       </c>
+      <c r="BC19" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BL19" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BU19" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CD19" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CM19" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CV19" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DE19" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DN19" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DW19" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EF19" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EO19" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="30.95" customHeight="1">
       <c r="A20" s="118" t="n">
@@ -25311,6 +26693,61 @@
           <t>无描述</t>
         </is>
       </c>
+      <c r="BC20" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BL20" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BU20" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CD20" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CM20" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CV20" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DE20" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DN20" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DW20" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EF20" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EO20" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="30.95" customHeight="1">
       <c r="A21" s="118" t="n">
@@ -25426,6 +26863,61 @@
           <t>无描述</t>
         </is>
       </c>
+      <c r="BC21" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BL21" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BU21" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CD21" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CM21" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CV21" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DE21" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DN21" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DW21" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EF21" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EO21" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="30.95" customHeight="1">
       <c r="A22" s="118" t="n">
@@ -25541,6 +27033,61 @@
           <t>无描述</t>
         </is>
       </c>
+      <c r="BC22" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BL22" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BU22" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CD22" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CM22" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CV22" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DE22" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DN22" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DW22" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EF22" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EO22" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="30.95" customHeight="1">
       <c r="A23" s="118" t="n">
@@ -25652,6 +27199,61 @@
         </is>
       </c>
       <c r="AT23" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BC23" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BL23" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BU23" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CD23" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CM23" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CV23" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DE23" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DN23" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DW23" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EF23" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EO23" t="inlineStr">
         <is>
           <t>无描述</t>
         </is>
@@ -25735,22 +27337,85 @@
       <c r="AB24" t="inlineStr">
         <is>
           <t>4A低加抽汽止回阀后疏水罐液位高高
-4A LP HTR EXTRN STM AFT N.R.V. 
-DRN POT LVL HIHI</t>
+4A LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
           <t>4A低加抽汽止回阀后疏水罐液位高高
-4A LP HTR EXTRN STM AFT N.R.V. 
-DRN POT LVL HIHI</t>
+4A LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr">
         <is>
           <t>4A低加抽汽止回阀后疏水罐液位高高
-4A LP HTR EXTRN STM AFT N.R.V. 
-DRN POT LVL HIHI</t>
+4A LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="BC24" t="inlineStr">
+        <is>
+          <t>4A低加抽汽止回阀后疏水罐液位高高
+4A LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="BL24" t="inlineStr">
+        <is>
+          <t>4A低加抽汽止回阀后疏水罐液位高高
+4A LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="BU24" t="inlineStr">
+        <is>
+          <t>4A低加抽汽止回阀后疏水罐液位高高
+4A LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="CD24" t="inlineStr">
+        <is>
+          <t>4A低加抽汽止回阀后疏水罐液位高高
+4A LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="CM24" t="inlineStr">
+        <is>
+          <t>4A低加抽汽止回阀后疏水罐液位高高
+4A LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="CV24" t="inlineStr">
+        <is>
+          <t>4A低加抽汽止回阀后疏水罐液位高高
+4A LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="DE24" t="inlineStr">
+        <is>
+          <t>4A低加抽汽止回阀后疏水罐液位高高
+4A LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="DN24" t="inlineStr">
+        <is>
+          <t>4A低加抽汽止回阀后疏水罐液位高高
+4A LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="DW24" t="inlineStr">
+        <is>
+          <t>4A低加抽汽止回阀后疏水罐液位高高
+4A LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="EF24" t="inlineStr">
+        <is>
+          <t>4A低加抽汽止回阀后疏水罐液位高高
+4A LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="EO24" t="inlineStr">
+        <is>
+          <t>4A低加抽汽止回阀后疏水罐液位高高
+4A LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
         </is>
       </c>
     </row>
@@ -25832,22 +27497,85 @@
       <c r="AB25" t="inlineStr">
         <is>
           <t>4A低加抽汽止回阀后疏水阀全开
-4A LP HTR EXTRN STM AFT N.R.V. 
-DRN VLV. OPEN POSN</t>
+4A LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
           <t>4A低加抽汽止回阀后疏水阀全开
-4A LP HTR EXTRN STM AFT N.R.V. 
-DRN VLV. OPEN POSN</t>
+4A LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr">
         <is>
           <t>4A低加抽汽止回阀后疏水阀全开
-4A LP HTR EXTRN STM AFT N.R.V. 
-DRN VLV. OPEN POSN</t>
+4A LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="BC25" t="inlineStr">
+        <is>
+          <t>4A低加抽汽止回阀后疏水阀全开
+4A LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="BL25" t="inlineStr">
+        <is>
+          <t>4A低加抽汽止回阀后疏水阀全开
+4A LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="BU25" t="inlineStr">
+        <is>
+          <t>4A低加抽汽止回阀后疏水阀全开
+4A LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="CD25" t="inlineStr">
+        <is>
+          <t>4A低加抽汽止回阀后疏水阀全开
+4A LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="CM25" t="inlineStr">
+        <is>
+          <t>4A低加抽汽止回阀后疏水阀全开
+4A LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="CV25" t="inlineStr">
+        <is>
+          <t>4A低加抽汽止回阀后疏水阀全开
+4A LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="DE25" t="inlineStr">
+        <is>
+          <t>4A低加抽汽止回阀后疏水阀全开
+4A LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="DN25" t="inlineStr">
+        <is>
+          <t>4A低加抽汽止回阀后疏水阀全开
+4A LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="DW25" t="inlineStr">
+        <is>
+          <t>4A低加抽汽止回阀后疏水阀全开
+4A LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="EF25" t="inlineStr">
+        <is>
+          <t>4A低加抽汽止回阀后疏水阀全开
+4A LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="EO25" t="inlineStr">
+        <is>
+          <t>4A低加抽汽止回阀后疏水阀全开
+4A LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
         </is>
       </c>
     </row>
@@ -25929,22 +27657,85 @@
       <c r="AB26" t="inlineStr">
         <is>
           <t>3A低加抽汽止回阀后疏水罐液位高高
-3A LP HTR EXTRN STM AFT N.R.V. 
-DRN POT LVL HIHI</t>
+3A LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
         </is>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
           <t>3A低加抽汽止回阀后疏水罐液位高高
-3A LP HTR EXTRN STM AFT N.R.V. 
-DRN POT LVL HIHI</t>
+3A LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr">
         <is>
           <t>3A低加抽汽止回阀后疏水罐液位高高
-3A LP HTR EXTRN STM AFT N.R.V. 
-DRN POT LVL HIHI</t>
+3A LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="BC26" t="inlineStr">
+        <is>
+          <t>3A低加抽汽止回阀后疏水罐液位高高
+3A LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="BL26" t="inlineStr">
+        <is>
+          <t>3A低加抽汽止回阀后疏水罐液位高高
+3A LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="BU26" t="inlineStr">
+        <is>
+          <t>3A低加抽汽止回阀后疏水罐液位高高
+3A LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="CD26" t="inlineStr">
+        <is>
+          <t>3A低加抽汽止回阀后疏水罐液位高高
+3A LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="CM26" t="inlineStr">
+        <is>
+          <t>3A低加抽汽止回阀后疏水罐液位高高
+3A LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="CV26" t="inlineStr">
+        <is>
+          <t>3A低加抽汽止回阀后疏水罐液位高高
+3A LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="DE26" t="inlineStr">
+        <is>
+          <t>3A低加抽汽止回阀后疏水罐液位高高
+3A LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="DN26" t="inlineStr">
+        <is>
+          <t>3A低加抽汽止回阀后疏水罐液位高高
+3A LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="DW26" t="inlineStr">
+        <is>
+          <t>3A低加抽汽止回阀后疏水罐液位高高
+3A LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="EF26" t="inlineStr">
+        <is>
+          <t>3A低加抽汽止回阀后疏水罐液位高高
+3A LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="EO26" t="inlineStr">
+        <is>
+          <t>3A低加抽汽止回阀后疏水罐液位高高
+3A LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
         </is>
       </c>
     </row>
@@ -26026,22 +27817,85 @@
       <c r="AB27" t="inlineStr">
         <is>
           <t>3A低加抽汽止回阀后疏水阀全开
-3A LP HTR EXTRN STM AFT N.R.V. 
-DRN VLV. OPEN POSN</t>
+3A LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
           <t>3A低加抽汽止回阀后疏水阀全开
-3A LP HTR EXTRN STM AFT N.R.V. 
-DRN VLV. OPEN POSN</t>
+3A LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr">
         <is>
           <t>3A低加抽汽止回阀后疏水阀全开
-3A LP HTR EXTRN STM AFT N.R.V. 
-DRN VLV. OPEN POSN</t>
+3A LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="BC27" t="inlineStr">
+        <is>
+          <t>3A低加抽汽止回阀后疏水阀全开
+3A LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="BL27" t="inlineStr">
+        <is>
+          <t>3A低加抽汽止回阀后疏水阀全开
+3A LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="BU27" t="inlineStr">
+        <is>
+          <t>3A低加抽汽止回阀后疏水阀全开
+3A LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="CD27" t="inlineStr">
+        <is>
+          <t>3A低加抽汽止回阀后疏水阀全开
+3A LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="CM27" t="inlineStr">
+        <is>
+          <t>3A低加抽汽止回阀后疏水阀全开
+3A LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="CV27" t="inlineStr">
+        <is>
+          <t>3A低加抽汽止回阀后疏水阀全开
+3A LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="DE27" t="inlineStr">
+        <is>
+          <t>3A低加抽汽止回阀后疏水阀全开
+3A LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="DN27" t="inlineStr">
+        <is>
+          <t>3A低加抽汽止回阀后疏水阀全开
+3A LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="DW27" t="inlineStr">
+        <is>
+          <t>3A低加抽汽止回阀后疏水阀全开
+3A LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="EF27" t="inlineStr">
+        <is>
+          <t>3A低加抽汽止回阀后疏水阀全开
+3A LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="EO27" t="inlineStr">
+        <is>
+          <t>3A低加抽汽止回阀后疏水阀全开
+3A LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
         </is>
       </c>
     </row>
@@ -26123,22 +27977,85 @@
       <c r="AB28" t="inlineStr">
         <is>
           <t>4B低加抽汽止回阀后疏水罐液位高高
-4B LP HTR EXTRN STM AFT N.R.V. 
-DRN POT LVL HIHI</t>
+4B LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
           <t>4B低加抽汽止回阀后疏水罐液位高高
-4B LP HTR EXTRN STM AFT N.R.V. 
-DRN POT LVL HIHI</t>
+4B LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr">
         <is>
           <t>4B低加抽汽止回阀后疏水罐液位高高
-4B LP HTR EXTRN STM AFT N.R.V. 
-DRN POT LVL HIHI</t>
+4B LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="BC28" t="inlineStr">
+        <is>
+          <t>4B低加抽汽止回阀后疏水罐液位高高
+4B LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="BL28" t="inlineStr">
+        <is>
+          <t>4B低加抽汽止回阀后疏水罐液位高高
+4B LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="BU28" t="inlineStr">
+        <is>
+          <t>4B低加抽汽止回阀后疏水罐液位高高
+4B LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="CD28" t="inlineStr">
+        <is>
+          <t>4B低加抽汽止回阀后疏水罐液位高高
+4B LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="CM28" t="inlineStr">
+        <is>
+          <t>4B低加抽汽止回阀后疏水罐液位高高
+4B LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="CV28" t="inlineStr">
+        <is>
+          <t>4B低加抽汽止回阀后疏水罐液位高高
+4B LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="DE28" t="inlineStr">
+        <is>
+          <t>4B低加抽汽止回阀后疏水罐液位高高
+4B LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="DN28" t="inlineStr">
+        <is>
+          <t>4B低加抽汽止回阀后疏水罐液位高高
+4B LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="DW28" t="inlineStr">
+        <is>
+          <t>4B低加抽汽止回阀后疏水罐液位高高
+4B LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="EF28" t="inlineStr">
+        <is>
+          <t>4B低加抽汽止回阀后疏水罐液位高高
+4B LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="EO28" t="inlineStr">
+        <is>
+          <t>4B低加抽汽止回阀后疏水罐液位高高
+4B LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
         </is>
       </c>
     </row>
@@ -26220,22 +28137,85 @@
       <c r="AB29" t="inlineStr">
         <is>
           <t>4B低加抽汽止回阀后疏水阀全开
-4B LP HTR EXTRN STM AFT N.R.V. 
-DRN VLV. OPEN POSN</t>
+4B LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
           <t>4B低加抽汽止回阀后疏水阀全开
-4B LP HTR EXTRN STM AFT N.R.V. 
-DRN VLV. OPEN POSN</t>
+4B LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr">
         <is>
           <t>4B低加抽汽止回阀后疏水阀全开
-4B LP HTR EXTRN STM AFT N.R.V. 
-DRN VLV. OPEN POSN</t>
+4B LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="BC29" t="inlineStr">
+        <is>
+          <t>4B低加抽汽止回阀后疏水阀全开
+4B LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="BL29" t="inlineStr">
+        <is>
+          <t>4B低加抽汽止回阀后疏水阀全开
+4B LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="BU29" t="inlineStr">
+        <is>
+          <t>4B低加抽汽止回阀后疏水阀全开
+4B LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="CD29" t="inlineStr">
+        <is>
+          <t>4B低加抽汽止回阀后疏水阀全开
+4B LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="CM29" t="inlineStr">
+        <is>
+          <t>4B低加抽汽止回阀后疏水阀全开
+4B LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="CV29" t="inlineStr">
+        <is>
+          <t>4B低加抽汽止回阀后疏水阀全开
+4B LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="DE29" t="inlineStr">
+        <is>
+          <t>4B低加抽汽止回阀后疏水阀全开
+4B LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="DN29" t="inlineStr">
+        <is>
+          <t>4B低加抽汽止回阀后疏水阀全开
+4B LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="DW29" t="inlineStr">
+        <is>
+          <t>4B低加抽汽止回阀后疏水阀全开
+4B LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="EF29" t="inlineStr">
+        <is>
+          <t>4B低加抽汽止回阀后疏水阀全开
+4B LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="EO29" t="inlineStr">
+        <is>
+          <t>4B低加抽汽止回阀后疏水阀全开
+4B LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
         </is>
       </c>
     </row>
@@ -26317,22 +28297,85 @@
       <c r="AB30" t="inlineStr">
         <is>
           <t>3B低加抽汽止回阀后疏水罐液位高高
-3B LP HTR EXTRN STM AFT N.R.V. 
-DRN POT LVL HIHI</t>
+3B LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
           <t>3B低加抽汽止回阀后疏水罐液位高高
-3B LP HTR EXTRN STM AFT N.R.V. 
-DRN POT LVL HIHI</t>
+3B LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr">
         <is>
           <t>3B低加抽汽止回阀后疏水罐液位高高
-3B LP HTR EXTRN STM AFT N.R.V. 
-DRN POT LVL HIHI</t>
+3B LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="BC30" t="inlineStr">
+        <is>
+          <t>3B低加抽汽止回阀后疏水罐液位高高
+3B LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="BL30" t="inlineStr">
+        <is>
+          <t>3B低加抽汽止回阀后疏水罐液位高高
+3B LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="BU30" t="inlineStr">
+        <is>
+          <t>3B低加抽汽止回阀后疏水罐液位高高
+3B LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="CD30" t="inlineStr">
+        <is>
+          <t>3B低加抽汽止回阀后疏水罐液位高高
+3B LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="CM30" t="inlineStr">
+        <is>
+          <t>3B低加抽汽止回阀后疏水罐液位高高
+3B LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="CV30" t="inlineStr">
+        <is>
+          <t>3B低加抽汽止回阀后疏水罐液位高高
+3B LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="DE30" t="inlineStr">
+        <is>
+          <t>3B低加抽汽止回阀后疏水罐液位高高
+3B LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="DN30" t="inlineStr">
+        <is>
+          <t>3B低加抽汽止回阀后疏水罐液位高高
+3B LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="DW30" t="inlineStr">
+        <is>
+          <t>3B低加抽汽止回阀后疏水罐液位高高
+3B LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="EF30" t="inlineStr">
+        <is>
+          <t>3B低加抽汽止回阀后疏水罐液位高高
+3B LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
+        </is>
+      </c>
+      <c r="EO30" t="inlineStr">
+        <is>
+          <t>3B低加抽汽止回阀后疏水罐液位高高
+3B LP HTR EXTRN STM AFT N.R.V. DRN POT LVL HIHI</t>
         </is>
       </c>
     </row>
@@ -26414,22 +28457,85 @@
       <c r="AB31" t="inlineStr">
         <is>
           <t>3B低加抽汽止回阀后疏水阀全开
-3B LP HTR EXTRN STM AFT N.R.V. 
-DRN VLV. OPEN POSN</t>
+3B LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
         </is>
       </c>
       <c r="AK31" t="inlineStr">
         <is>
           <t>3B低加抽汽止回阀后疏水阀全开
-3B LP HTR EXTRN STM AFT N.R.V. 
-DRN VLV. OPEN POSN</t>
+3B LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr">
         <is>
           <t>3B低加抽汽止回阀后疏水阀全开
-3B LP HTR EXTRN STM AFT N.R.V. 
-DRN VLV. OPEN POSN</t>
+3B LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="BC31" t="inlineStr">
+        <is>
+          <t>3B低加抽汽止回阀后疏水阀全开
+3B LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="BL31" t="inlineStr">
+        <is>
+          <t>3B低加抽汽止回阀后疏水阀全开
+3B LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="BU31" t="inlineStr">
+        <is>
+          <t>3B低加抽汽止回阀后疏水阀全开
+3B LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="CD31" t="inlineStr">
+        <is>
+          <t>3B低加抽汽止回阀后疏水阀全开
+3B LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="CM31" t="inlineStr">
+        <is>
+          <t>3B低加抽汽止回阀后疏水阀全开
+3B LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="CV31" t="inlineStr">
+        <is>
+          <t>3B低加抽汽止回阀后疏水阀全开
+3B LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="DE31" t="inlineStr">
+        <is>
+          <t>3B低加抽汽止回阀后疏水阀全开
+3B LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="DN31" t="inlineStr">
+        <is>
+          <t>3B低加抽汽止回阀后疏水阀全开
+3B LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="DW31" t="inlineStr">
+        <is>
+          <t>3B低加抽汽止回阀后疏水阀全开
+3B LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="EF31" t="inlineStr">
+        <is>
+          <t>3B低加抽汽止回阀后疏水阀全开
+3B LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
+        </is>
+      </c>
+      <c r="EO31" t="inlineStr">
+        <is>
+          <t>3B低加抽汽止回阀后疏水阀全开
+3B LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
         </is>
       </c>
     </row>
@@ -26455,7 +28561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT107"/>
+  <dimension ref="A1:EO107"/>
   <sheetViews>
     <sheetView topLeftCell="A81" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="O4" sqref="O4:O107"/>
@@ -26498,6 +28604,61 @@
     <col width="15" customWidth="1" min="42" max="42"/>
     <col width="15" customWidth="1" min="43" max="43"/>
     <col width="15" customWidth="1" min="44" max="44"/>
+    <col width="15" customWidth="1" min="49" max="49"/>
+    <col width="15" customWidth="1" min="50" max="50"/>
+    <col width="15" customWidth="1" min="51" max="51"/>
+    <col width="15" customWidth="1" min="52" max="52"/>
+    <col width="15" customWidth="1" min="53" max="53"/>
+    <col width="15" customWidth="1" min="58" max="58"/>
+    <col width="15" customWidth="1" min="59" max="59"/>
+    <col width="15" customWidth="1" min="60" max="60"/>
+    <col width="15" customWidth="1" min="61" max="61"/>
+    <col width="15" customWidth="1" min="62" max="62"/>
+    <col width="15" customWidth="1" min="67" max="67"/>
+    <col width="15" customWidth="1" min="68" max="68"/>
+    <col width="15" customWidth="1" min="69" max="69"/>
+    <col width="15" customWidth="1" min="70" max="70"/>
+    <col width="15" customWidth="1" min="71" max="71"/>
+    <col width="15" customWidth="1" min="76" max="76"/>
+    <col width="15" customWidth="1" min="77" max="77"/>
+    <col width="15" customWidth="1" min="78" max="78"/>
+    <col width="15" customWidth="1" min="79" max="79"/>
+    <col width="15" customWidth="1" min="80" max="80"/>
+    <col width="15" customWidth="1" min="85" max="85"/>
+    <col width="15" customWidth="1" min="86" max="86"/>
+    <col width="15" customWidth="1" min="87" max="87"/>
+    <col width="15" customWidth="1" min="88" max="88"/>
+    <col width="15" customWidth="1" min="89" max="89"/>
+    <col width="15" customWidth="1" min="94" max="94"/>
+    <col width="15" customWidth="1" min="95" max="95"/>
+    <col width="15" customWidth="1" min="96" max="96"/>
+    <col width="15" customWidth="1" min="97" max="97"/>
+    <col width="15" customWidth="1" min="98" max="98"/>
+    <col width="15" customWidth="1" min="103" max="103"/>
+    <col width="15" customWidth="1" min="104" max="104"/>
+    <col width="15" customWidth="1" min="105" max="105"/>
+    <col width="15" customWidth="1" min="106" max="106"/>
+    <col width="15" customWidth="1" min="107" max="107"/>
+    <col width="15" customWidth="1" min="112" max="112"/>
+    <col width="15" customWidth="1" min="113" max="113"/>
+    <col width="15" customWidth="1" min="114" max="114"/>
+    <col width="15" customWidth="1" min="115" max="115"/>
+    <col width="15" customWidth="1" min="116" max="116"/>
+    <col width="15" customWidth="1" min="121" max="121"/>
+    <col width="15" customWidth="1" min="122" max="122"/>
+    <col width="15" customWidth="1" min="123" max="123"/>
+    <col width="15" customWidth="1" min="124" max="124"/>
+    <col width="15" customWidth="1" min="125" max="125"/>
+    <col width="15" customWidth="1" min="130" max="130"/>
+    <col width="15" customWidth="1" min="131" max="131"/>
+    <col width="15" customWidth="1" min="132" max="132"/>
+    <col width="15" customWidth="1" min="133" max="133"/>
+    <col width="15" customWidth="1" min="134" max="134"/>
+    <col width="15" customWidth="1" min="139" max="139"/>
+    <col width="15" customWidth="1" min="140" max="140"/>
+    <col width="15" customWidth="1" min="141" max="141"/>
+    <col width="15" customWidth="1" min="142" max="142"/>
+    <col width="15" customWidth="1" min="143" max="143"/>
   </cols>
   <sheetData>
     <row r="1" ht="63.6" customFormat="1" customHeight="1" s="107">
@@ -26717,6 +28878,336 @@
           <t>CAD版本</t>
         </is>
       </c>
+      <c r="AX1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号位号</t>
+        </is>
+      </c>
+      <c r="AY1" s="195" t="inlineStr">
+        <is>
+          <t>CAD扩展码</t>
+        </is>
+      </c>
+      <c r="AZ1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号说明</t>
+        </is>
+      </c>
+      <c r="BA1" s="195" t="inlineStr">
+        <is>
+          <t>CAD安全分级/分组</t>
+        </is>
+      </c>
+      <c r="BB1" s="195" t="inlineStr">
+        <is>
+          <t>CAD图号</t>
+        </is>
+      </c>
+      <c r="BC1" s="195" t="inlineStr">
+        <is>
+          <t>CAD版本</t>
+        </is>
+      </c>
+      <c r="BG1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号位号</t>
+        </is>
+      </c>
+      <c r="BH1" s="195" t="inlineStr">
+        <is>
+          <t>CAD扩展码</t>
+        </is>
+      </c>
+      <c r="BI1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号说明</t>
+        </is>
+      </c>
+      <c r="BJ1" s="195" t="inlineStr">
+        <is>
+          <t>CAD安全分级/分组</t>
+        </is>
+      </c>
+      <c r="BK1" s="195" t="inlineStr">
+        <is>
+          <t>CAD图号</t>
+        </is>
+      </c>
+      <c r="BL1" s="195" t="inlineStr">
+        <is>
+          <t>CAD版本</t>
+        </is>
+      </c>
+      <c r="BP1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号位号</t>
+        </is>
+      </c>
+      <c r="BQ1" s="195" t="inlineStr">
+        <is>
+          <t>CAD扩展码</t>
+        </is>
+      </c>
+      <c r="BR1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号说明</t>
+        </is>
+      </c>
+      <c r="BS1" s="195" t="inlineStr">
+        <is>
+          <t>CAD安全分级/分组</t>
+        </is>
+      </c>
+      <c r="BT1" s="195" t="inlineStr">
+        <is>
+          <t>CAD图号</t>
+        </is>
+      </c>
+      <c r="BU1" s="195" t="inlineStr">
+        <is>
+          <t>CAD版本</t>
+        </is>
+      </c>
+      <c r="BY1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号位号</t>
+        </is>
+      </c>
+      <c r="BZ1" s="195" t="inlineStr">
+        <is>
+          <t>CAD扩展码</t>
+        </is>
+      </c>
+      <c r="CA1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号说明</t>
+        </is>
+      </c>
+      <c r="CB1" s="195" t="inlineStr">
+        <is>
+          <t>CAD安全分级/分组</t>
+        </is>
+      </c>
+      <c r="CC1" s="195" t="inlineStr">
+        <is>
+          <t>CAD图号</t>
+        </is>
+      </c>
+      <c r="CD1" s="195" t="inlineStr">
+        <is>
+          <t>CAD版本</t>
+        </is>
+      </c>
+      <c r="CH1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号位号</t>
+        </is>
+      </c>
+      <c r="CI1" s="195" t="inlineStr">
+        <is>
+          <t>CAD扩展码</t>
+        </is>
+      </c>
+      <c r="CJ1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号说明</t>
+        </is>
+      </c>
+      <c r="CK1" s="195" t="inlineStr">
+        <is>
+          <t>CAD安全分级/分组</t>
+        </is>
+      </c>
+      <c r="CL1" s="195" t="inlineStr">
+        <is>
+          <t>CAD图号</t>
+        </is>
+      </c>
+      <c r="CM1" s="195" t="inlineStr">
+        <is>
+          <t>CAD版本</t>
+        </is>
+      </c>
+      <c r="CQ1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号位号</t>
+        </is>
+      </c>
+      <c r="CR1" s="195" t="inlineStr">
+        <is>
+          <t>CAD扩展码</t>
+        </is>
+      </c>
+      <c r="CS1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号说明</t>
+        </is>
+      </c>
+      <c r="CT1" s="195" t="inlineStr">
+        <is>
+          <t>CAD安全分级/分组</t>
+        </is>
+      </c>
+      <c r="CU1" s="195" t="inlineStr">
+        <is>
+          <t>CAD图号</t>
+        </is>
+      </c>
+      <c r="CV1" s="195" t="inlineStr">
+        <is>
+          <t>CAD版本</t>
+        </is>
+      </c>
+      <c r="CZ1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号位号</t>
+        </is>
+      </c>
+      <c r="DA1" s="195" t="inlineStr">
+        <is>
+          <t>CAD扩展码</t>
+        </is>
+      </c>
+      <c r="DB1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号说明</t>
+        </is>
+      </c>
+      <c r="DC1" s="195" t="inlineStr">
+        <is>
+          <t>CAD安全分级/分组</t>
+        </is>
+      </c>
+      <c r="DD1" s="195" t="inlineStr">
+        <is>
+          <t>CAD图号</t>
+        </is>
+      </c>
+      <c r="DE1" s="195" t="inlineStr">
+        <is>
+          <t>CAD版本</t>
+        </is>
+      </c>
+      <c r="DI1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号位号</t>
+        </is>
+      </c>
+      <c r="DJ1" s="195" t="inlineStr">
+        <is>
+          <t>CAD扩展码</t>
+        </is>
+      </c>
+      <c r="DK1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号说明</t>
+        </is>
+      </c>
+      <c r="DL1" s="195" t="inlineStr">
+        <is>
+          <t>CAD安全分级/分组</t>
+        </is>
+      </c>
+      <c r="DM1" s="195" t="inlineStr">
+        <is>
+          <t>CAD图号</t>
+        </is>
+      </c>
+      <c r="DN1" s="195" t="inlineStr">
+        <is>
+          <t>CAD版本</t>
+        </is>
+      </c>
+      <c r="DR1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号位号</t>
+        </is>
+      </c>
+      <c r="DS1" s="195" t="inlineStr">
+        <is>
+          <t>CAD扩展码</t>
+        </is>
+      </c>
+      <c r="DT1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号说明</t>
+        </is>
+      </c>
+      <c r="DU1" s="195" t="inlineStr">
+        <is>
+          <t>CAD安全分级/分组</t>
+        </is>
+      </c>
+      <c r="DV1" s="195" t="inlineStr">
+        <is>
+          <t>CAD图号</t>
+        </is>
+      </c>
+      <c r="DW1" s="195" t="inlineStr">
+        <is>
+          <t>CAD版本</t>
+        </is>
+      </c>
+      <c r="EA1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号位号</t>
+        </is>
+      </c>
+      <c r="EB1" s="195" t="inlineStr">
+        <is>
+          <t>CAD扩展码</t>
+        </is>
+      </c>
+      <c r="EC1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号说明</t>
+        </is>
+      </c>
+      <c r="ED1" s="195" t="inlineStr">
+        <is>
+          <t>CAD安全分级/分组</t>
+        </is>
+      </c>
+      <c r="EE1" s="195" t="inlineStr">
+        <is>
+          <t>CAD图号</t>
+        </is>
+      </c>
+      <c r="EF1" s="195" t="inlineStr">
+        <is>
+          <t>CAD版本</t>
+        </is>
+      </c>
+      <c r="EJ1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号位号</t>
+        </is>
+      </c>
+      <c r="EK1" s="195" t="inlineStr">
+        <is>
+          <t>CAD扩展码</t>
+        </is>
+      </c>
+      <c r="EL1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号说明</t>
+        </is>
+      </c>
+      <c r="EM1" s="195" t="inlineStr">
+        <is>
+          <t>CAD安全分级/分组</t>
+        </is>
+      </c>
+      <c r="EN1" s="195" t="inlineStr">
+        <is>
+          <t>CAD图号</t>
+        </is>
+      </c>
+      <c r="EO1" s="195" t="inlineStr">
+        <is>
+          <t>CAD版本</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="34.5" customFormat="1" customHeight="1" s="107">
       <c r="A2" s="67" t="n">
@@ -27231,110 +29722,251 @@
       <c r="S8" s="67" t="n"/>
     </row>
     <row r="9" ht="34.5" customFormat="1" customHeight="1" s="107">
-      <c r="A9" s="67" t="n">
+      <c r="A9" s="199" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="87" t="inlineStr">
+      <c r="B9" s="200" t="inlineStr">
         <is>
           <t>3TFL511VL</t>
         </is>
       </c>
-      <c r="C9" s="199" t="inlineStr">
+      <c r="C9" s="201" t="inlineStr">
         <is>
           <t>CO</t>
         </is>
       </c>
-      <c r="D9" s="200" t="inlineStr">
+      <c r="D9" s="202" t="inlineStr">
         <is>
           <t xml:space="preserve">3A低加抽汽止回阀后疏水阀关指令
 3A LP HTR EXTRN STM AFT N.R.V. DRN VLV. CLS DMD </t>
         </is>
       </c>
-      <c r="E9" s="67" t="inlineStr">
+      <c r="E9" s="199" t="inlineStr">
         <is>
           <t>NC/A</t>
         </is>
       </c>
-      <c r="F9" s="67" t="inlineStr">
+      <c r="F9" s="199" t="inlineStr">
         <is>
           <t>NC</t>
         </is>
       </c>
-      <c r="G9" s="67" t="inlineStr">
+      <c r="G9" s="199" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="H9" s="67" t="inlineStr">
+      <c r="H9" s="199" t="inlineStr">
         <is>
           <t>DO</t>
         </is>
       </c>
-      <c r="I9" s="67" t="n">
+      <c r="I9" s="199" t="n">
         <v>1</v>
       </c>
-      <c r="J9" s="67" t="inlineStr">
+      <c r="J9" s="199" t="inlineStr">
         <is>
           <t>DCS</t>
         </is>
       </c>
-      <c r="K9" s="67" t="n"/>
-      <c r="L9" s="67" t="n"/>
-      <c r="M9" s="67" t="n"/>
-      <c r="N9" s="67" t="n"/>
-      <c r="O9" s="89" t="inlineStr">
+      <c r="K9" s="199" t="n"/>
+      <c r="L9" s="199" t="n"/>
+      <c r="M9" s="199" t="n"/>
+      <c r="N9" s="199" t="n"/>
+      <c r="O9" s="203" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="P9" s="121" t="inlineStr">
+      <c r="P9" s="204" t="inlineStr">
         <is>
           <t>48VDC电磁阀
 48VDC SOLENOID VALVE</t>
         </is>
       </c>
-      <c r="Q9" s="67" t="inlineStr">
+      <c r="Q9" s="199" t="inlineStr">
         <is>
           <t>FD-12</t>
         </is>
       </c>
-      <c r="R9" s="121" t="inlineStr">
+      <c r="R9" s="204" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S9" s="67" t="n"/>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>3A低加抽汽止回阀后疏水阀关指令
-CLS DMD</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>3A低加抽汽止回阀后疏水阀关指令
-CLS DMD</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
-        <is>
-          <t>3A低加抽汽止回阀后疏水阀关指令
-CLS DMD</t>
+      <c r="S9" s="199" t="n"/>
+      <c r="T9" s="205" t="n"/>
+      <c r="U9" s="205" t="n"/>
+      <c r="V9" s="205" t="n"/>
+      <c r="W9" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="X9" s="205" t="n"/>
+      <c r="Y9" s="205" t="n"/>
+      <c r="Z9" s="205" t="n"/>
+      <c r="AA9" s="205" t="n"/>
+      <c r="AB9" s="205" t="n"/>
+      <c r="AC9" s="205" t="n"/>
+      <c r="AD9" s="205" t="n"/>
+      <c r="AE9" s="205" t="n"/>
+      <c r="AF9" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="AG9" s="205" t="n"/>
+      <c r="AH9" s="205" t="n"/>
+      <c r="AI9" s="205" t="n"/>
+      <c r="AJ9" s="205" t="n"/>
+      <c r="AK9" s="205" t="n"/>
+      <c r="AL9" s="205" t="n"/>
+      <c r="AM9" s="205" t="n"/>
+      <c r="AN9" s="205" t="n"/>
+      <c r="AO9" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="AP9" s="205" t="n"/>
+      <c r="AQ9" s="205" t="n"/>
+      <c r="AR9" s="205" t="n"/>
+      <c r="AS9" s="205" t="n"/>
+      <c r="AT9" s="205" t="n"/>
+      <c r="AU9" s="205" t="n"/>
+      <c r="AV9" s="205" t="n"/>
+      <c r="AW9" s="205" t="n"/>
+      <c r="AX9" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="AY9" s="205" t="n"/>
+      <c r="AZ9" s="205" t="n"/>
+      <c r="BA9" s="205" t="n"/>
+      <c r="BB9" s="205" t="n"/>
+      <c r="BC9" s="205" t="n"/>
+      <c r="BD9" s="205" t="n"/>
+      <c r="BE9" s="205" t="n"/>
+      <c r="BF9" s="205" t="n"/>
+      <c r="BG9" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="BH9" s="205" t="n"/>
+      <c r="BI9" s="205" t="n"/>
+      <c r="BJ9" s="205" t="n"/>
+      <c r="BK9" s="205" t="n"/>
+      <c r="BL9" s="205" t="n"/>
+      <c r="BM9" s="205" t="n"/>
+      <c r="BN9" s="205" t="n"/>
+      <c r="BO9" s="205" t="n"/>
+      <c r="BP9" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="BQ9" s="205" t="n"/>
+      <c r="BR9" s="205" t="n"/>
+      <c r="BS9" s="205" t="n"/>
+      <c r="BT9" s="205" t="n"/>
+      <c r="BU9" s="205" t="n"/>
+      <c r="BV9" s="205" t="n"/>
+      <c r="BW9" s="205" t="n"/>
+      <c r="BX9" s="205" t="n"/>
+      <c r="BY9" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="BZ9" s="205" t="n"/>
+      <c r="CA9" s="205" t="n"/>
+      <c r="CB9" s="205" t="n"/>
+      <c r="CC9" s="205" t="n"/>
+      <c r="CD9" s="205" t="n"/>
+      <c r="CE9" s="205" t="n"/>
+      <c r="CF9" s="205" t="n"/>
+      <c r="CG9" s="205" t="n"/>
+      <c r="CH9" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="CI9" s="205" t="n"/>
+      <c r="CJ9" s="205" t="n"/>
+      <c r="CK9" s="205" t="n"/>
+      <c r="CL9" s="205" t="n"/>
+      <c r="CM9" s="205" t="n"/>
+      <c r="CN9" s="205" t="n"/>
+      <c r="CO9" s="205" t="n"/>
+      <c r="CP9" s="205" t="n"/>
+      <c r="CQ9" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="CR9" s="205" t="n"/>
+      <c r="CS9" s="205" t="n"/>
+      <c r="CT9" s="205" t="n"/>
+      <c r="CU9" s="205" t="n"/>
+      <c r="CV9" s="205" t="n"/>
+      <c r="CW9" s="205" t="n"/>
+      <c r="CX9" s="205" t="n"/>
+      <c r="CY9" s="205" t="n"/>
+      <c r="CZ9" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="DA9" s="205" t="n"/>
+      <c r="DB9" s="205" t="n"/>
+      <c r="DC9" s="205" t="n"/>
+      <c r="DD9" s="205" t="n"/>
+      <c r="DE9" s="205" t="n"/>
+      <c r="DF9" s="205" t="n"/>
+      <c r="DG9" s="205" t="n"/>
+      <c r="DH9" s="205" t="n"/>
+      <c r="DI9" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="DJ9" s="205" t="n"/>
+      <c r="DK9" s="205" t="n"/>
+      <c r="DL9" s="205" t="n"/>
+      <c r="DM9" s="205" t="n"/>
+      <c r="DN9" s="205" t="n"/>
+      <c r="DO9" s="205" t="n"/>
+      <c r="DP9" s="205" t="n"/>
+      <c r="DQ9" s="205" t="n"/>
+      <c r="DR9" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="DS9" s="205" t="n"/>
+      <c r="DT9" s="205" t="n"/>
+      <c r="DU9" s="205" t="n"/>
+      <c r="DV9" s="205" t="n"/>
+      <c r="DW9" s="205" t="n"/>
+      <c r="DX9" s="205" t="n"/>
+      <c r="DY9" s="205" t="n"/>
+      <c r="DZ9" s="205" t="n"/>
+      <c r="EA9" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="EB9" s="205" t="n"/>
+      <c r="EC9" s="205" t="n"/>
+      <c r="ED9" s="205" t="n"/>
+      <c r="EE9" s="205" t="n"/>
+      <c r="EF9" s="205" t="n"/>
+      <c r="EJ9" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
         </is>
       </c>
     </row>
@@ -27352,7 +29984,7 @@
           <t>OP</t>
         </is>
       </c>
-      <c r="D10" s="200" t="inlineStr">
+      <c r="D10" s="202" t="inlineStr">
         <is>
           <t>3A低加抽汽止回阀后疏水阀全开
 3A LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
@@ -27422,6 +30054,61 @@
           <t>无描述</t>
         </is>
       </c>
+      <c r="AZ10" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BI10" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CA10" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CJ10" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CS10" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DB10" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DK10" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DT10" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EC10" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EL10" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="34.5" customFormat="1" customHeight="1" s="107">
       <c r="A11" s="67" t="n">
@@ -28006,110 +30693,254 @@
       <c r="S18" s="67" t="n"/>
     </row>
     <row r="19" ht="34.5" customFormat="1" customHeight="1" s="107">
-      <c r="A19" s="67" t="n">
+      <c r="A19" s="199" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="87" t="inlineStr">
+      <c r="B19" s="200" t="inlineStr">
         <is>
           <t>3TFL521VL</t>
         </is>
       </c>
-      <c r="C19" s="199" t="inlineStr">
+      <c r="C19" s="201" t="inlineStr">
         <is>
           <t>CO</t>
         </is>
       </c>
-      <c r="D19" s="200" t="inlineStr">
+      <c r="D19" s="202" t="inlineStr">
         <is>
           <t xml:space="preserve">3B低加抽汽止回阀后疏水阀关指令
 3B LP HTR EXTRN STM AFT N.R.V. DRN VLV. CLS DMD </t>
         </is>
       </c>
-      <c r="E19" s="67" t="inlineStr">
+      <c r="E19" s="199" t="inlineStr">
         <is>
           <t>NC/A</t>
         </is>
       </c>
-      <c r="F19" s="67" t="inlineStr">
+      <c r="F19" s="199" t="inlineStr">
         <is>
           <t>NC</t>
         </is>
       </c>
-      <c r="G19" s="67" t="inlineStr">
+      <c r="G19" s="199" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="H19" s="67" t="inlineStr">
+      <c r="H19" s="199" t="inlineStr">
         <is>
           <t>DO</t>
         </is>
       </c>
-      <c r="I19" s="67" t="n">
+      <c r="I19" s="199" t="n">
         <v>1</v>
       </c>
-      <c r="J19" s="67" t="inlineStr">
+      <c r="J19" s="199" t="inlineStr">
         <is>
           <t>DCS</t>
         </is>
       </c>
-      <c r="K19" s="67" t="n"/>
-      <c r="L19" s="67" t="n"/>
-      <c r="M19" s="67" t="n"/>
-      <c r="N19" s="67" t="n"/>
-      <c r="O19" s="89" t="inlineStr">
+      <c r="K19" s="199" t="n"/>
+      <c r="L19" s="199" t="n"/>
+      <c r="M19" s="199" t="n"/>
+      <c r="N19" s="199" t="n"/>
+      <c r="O19" s="203" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="P19" s="121" t="inlineStr">
+      <c r="P19" s="204" t="inlineStr">
         <is>
           <t>48VDC电磁阀
 48VDC SOLENOID VALVE</t>
         </is>
       </c>
-      <c r="Q19" s="67" t="inlineStr">
+      <c r="Q19" s="199" t="inlineStr">
         <is>
           <t>FD-15</t>
         </is>
       </c>
-      <c r="R19" s="121" t="inlineStr">
+      <c r="R19" s="204" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S19" s="67" t="n"/>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>3B低加抽汽止回阀后疏水阀关指令
-CLS DMD</t>
-        </is>
-      </c>
-      <c r="AG19" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="AH19" t="inlineStr">
-        <is>
-          <t>3B低加抽汽止回阀后疏水阀关指令
-CLS DMD</t>
-        </is>
-      </c>
-      <c r="AP19" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="AQ19" t="inlineStr">
-        <is>
-          <t>3B低加抽汽止回阀后疏水阀关指令
-CLS DMD</t>
+      <c r="S19" s="199" t="n"/>
+      <c r="T19" s="205" t="n"/>
+      <c r="U19" s="205" t="n"/>
+      <c r="V19" s="205" t="n"/>
+      <c r="W19" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="X19" s="205" t="n"/>
+      <c r="Y19" s="205" t="n"/>
+      <c r="Z19" s="205" t="n"/>
+      <c r="AA19" s="205" t="n"/>
+      <c r="AB19" s="205" t="n"/>
+      <c r="AC19" s="205" t="n"/>
+      <c r="AD19" s="205" t="n"/>
+      <c r="AE19" s="205" t="n"/>
+      <c r="AF19" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="AG19" s="205" t="n"/>
+      <c r="AH19" s="205" t="n"/>
+      <c r="AI19" s="205" t="n"/>
+      <c r="AJ19" s="205" t="n"/>
+      <c r="AK19" s="205" t="n"/>
+      <c r="AL19" s="205" t="n"/>
+      <c r="AM19" s="205" t="n"/>
+      <c r="AN19" s="205" t="n"/>
+      <c r="AO19" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="AP19" s="205" t="n"/>
+      <c r="AQ19" s="205" t="n"/>
+      <c r="AR19" s="205" t="n"/>
+      <c r="AS19" s="205" t="n"/>
+      <c r="AT19" s="205" t="n"/>
+      <c r="AU19" s="205" t="n"/>
+      <c r="AV19" s="205" t="n"/>
+      <c r="AW19" s="205" t="n"/>
+      <c r="AX19" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="AY19" s="205" t="n"/>
+      <c r="AZ19" s="205" t="n"/>
+      <c r="BA19" s="205" t="n"/>
+      <c r="BB19" s="205" t="n"/>
+      <c r="BC19" s="205" t="n"/>
+      <c r="BD19" s="205" t="n"/>
+      <c r="BE19" s="205" t="n"/>
+      <c r="BF19" s="205" t="n"/>
+      <c r="BG19" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="BH19" s="205" t="n"/>
+      <c r="BI19" s="205" t="n"/>
+      <c r="BJ19" s="205" t="n"/>
+      <c r="BK19" s="205" t="n"/>
+      <c r="BL19" s="205" t="n"/>
+      <c r="BM19" s="205" t="n"/>
+      <c r="BN19" s="205" t="n"/>
+      <c r="BO19" s="205" t="n"/>
+      <c r="BP19" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="BQ19" s="205" t="n"/>
+      <c r="BR19" s="205" t="n"/>
+      <c r="BS19" s="205" t="n"/>
+      <c r="BT19" s="205" t="n"/>
+      <c r="BU19" s="205" t="n"/>
+      <c r="BV19" s="205" t="n"/>
+      <c r="BW19" s="205" t="n"/>
+      <c r="BX19" s="205" t="n"/>
+      <c r="BY19" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="BZ19" s="205" t="n"/>
+      <c r="CA19" s="205" t="n"/>
+      <c r="CB19" s="205" t="n"/>
+      <c r="CC19" s="205" t="n"/>
+      <c r="CD19" s="205" t="n"/>
+      <c r="CE19" s="205" t="n"/>
+      <c r="CF19" s="205" t="n"/>
+      <c r="CG19" s="205" t="n"/>
+      <c r="CH19" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="CI19" s="205" t="n"/>
+      <c r="CJ19" s="205" t="n"/>
+      <c r="CK19" s="205" t="n"/>
+      <c r="CL19" s="205" t="n"/>
+      <c r="CM19" s="205" t="n"/>
+      <c r="CN19" s="205" t="n"/>
+      <c r="CO19" s="205" t="n"/>
+      <c r="CP19" s="205" t="n"/>
+      <c r="CQ19" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="CR19" s="205" t="n"/>
+      <c r="CS19" s="205" t="n"/>
+      <c r="CT19" s="205" t="n"/>
+      <c r="CU19" s="205" t="n"/>
+      <c r="CV19" s="205" t="n"/>
+      <c r="CW19" s="205" t="n"/>
+      <c r="CX19" s="205" t="n"/>
+      <c r="CY19" s="205" t="n"/>
+      <c r="CZ19" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="DA19" s="205" t="n"/>
+      <c r="DB19" s="205" t="n"/>
+      <c r="DC19" s="205" t="n"/>
+      <c r="DD19" s="205" t="n"/>
+      <c r="DE19" s="205" t="n"/>
+      <c r="DF19" s="205" t="n"/>
+      <c r="DG19" s="205" t="n"/>
+      <c r="DH19" s="205" t="n"/>
+      <c r="DI19" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="DJ19" s="205" t="n"/>
+      <c r="DK19" s="205" t="n"/>
+      <c r="DL19" s="205" t="n"/>
+      <c r="DM19" s="205" t="n"/>
+      <c r="DN19" s="205" t="n"/>
+      <c r="DO19" s="205" t="n"/>
+      <c r="DP19" s="205" t="n"/>
+      <c r="DQ19" s="205" t="n"/>
+      <c r="DR19" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="DS19" s="205" t="n"/>
+      <c r="DT19" s="205" t="n"/>
+      <c r="DU19" s="205" t="n"/>
+      <c r="DV19" s="205" t="n"/>
+      <c r="DW19" s="205" t="n"/>
+      <c r="DX19" s="205" t="n"/>
+      <c r="DY19" s="205" t="n"/>
+      <c r="DZ19" s="205" t="n"/>
+      <c r="EA19" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="EB19" s="205" t="n"/>
+      <c r="EC19" s="205" t="n"/>
+      <c r="ED19" s="205" t="n"/>
+      <c r="EE19" s="205" t="n"/>
+      <c r="EF19" s="205" t="n"/>
+      <c r="EG19" s="205" t="n"/>
+      <c r="EH19" s="205" t="n"/>
+      <c r="EI19" s="205" t="n"/>
+      <c r="EJ19" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
         </is>
       </c>
     </row>
@@ -28127,7 +30958,7 @@
           <t>OP</t>
         </is>
       </c>
-      <c r="D20" s="200" t="inlineStr">
+      <c r="D20" s="202" t="inlineStr">
         <is>
           <t>3B低加抽汽止回阀后疏水阀全开
 3B LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
@@ -28197,6 +31028,61 @@
           <t>无描述</t>
         </is>
       </c>
+      <c r="AZ20" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BI20" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CA20" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CJ20" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CS20" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DB20" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DK20" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DT20" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EC20" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EL20" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="34.5" customFormat="1" customHeight="1" s="107">
       <c r="A21" s="67" t="n">
@@ -28781,110 +31667,254 @@
       <c r="S28" s="67" t="n"/>
     </row>
     <row r="29" ht="34.5" customFormat="1" customHeight="1" s="107">
-      <c r="A29" s="67" t="n">
+      <c r="A29" s="199" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="87" t="inlineStr">
+      <c r="B29" s="200" t="inlineStr">
         <is>
           <t>3TFL411VL</t>
         </is>
       </c>
-      <c r="C29" s="199" t="inlineStr">
+      <c r="C29" s="201" t="inlineStr">
         <is>
           <t>CO</t>
         </is>
       </c>
-      <c r="D29" s="200" t="inlineStr">
+      <c r="D29" s="202" t="inlineStr">
         <is>
           <t xml:space="preserve">4A低加抽汽止回阀后疏水阀关指令
 4A LP HTR EXTRN STM AFT N.R.V. DRN VLV. CLS DMD </t>
         </is>
       </c>
-      <c r="E29" s="67" t="inlineStr">
+      <c r="E29" s="199" t="inlineStr">
         <is>
           <t>NC/A</t>
         </is>
       </c>
-      <c r="F29" s="67" t="inlineStr">
+      <c r="F29" s="199" t="inlineStr">
         <is>
           <t>NC</t>
         </is>
       </c>
-      <c r="G29" s="67" t="inlineStr">
+      <c r="G29" s="199" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="H29" s="67" t="inlineStr">
+      <c r="H29" s="199" t="inlineStr">
         <is>
           <t>DO</t>
         </is>
       </c>
-      <c r="I29" s="67" t="n">
+      <c r="I29" s="199" t="n">
         <v>1</v>
       </c>
-      <c r="J29" s="67" t="inlineStr">
+      <c r="J29" s="199" t="inlineStr">
         <is>
           <t>DCS</t>
         </is>
       </c>
-      <c r="K29" s="67" t="n"/>
-      <c r="L29" s="67" t="n"/>
-      <c r="M29" s="67" t="n"/>
-      <c r="N29" s="67" t="n"/>
-      <c r="O29" s="89" t="inlineStr">
+      <c r="K29" s="199" t="n"/>
+      <c r="L29" s="199" t="n"/>
+      <c r="M29" s="199" t="n"/>
+      <c r="N29" s="199" t="n"/>
+      <c r="O29" s="203" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="P29" s="121" t="inlineStr">
+      <c r="P29" s="204" t="inlineStr">
         <is>
           <t>48VDC电磁阀
 48VDC SOLENOID VALVE</t>
         </is>
       </c>
-      <c r="Q29" s="67" t="inlineStr">
+      <c r="Q29" s="199" t="inlineStr">
         <is>
           <t>FD-18</t>
         </is>
       </c>
-      <c r="R29" s="121" t="inlineStr">
+      <c r="R29" s="204" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S29" s="67" t="n"/>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t>4A低加抽汽止回阀后疏水阀关指令
-CLS DMD</t>
-        </is>
-      </c>
-      <c r="AG29" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="AH29" t="inlineStr">
-        <is>
-          <t>4A低加抽汽止回阀后疏水阀关指令
-CLS DMD</t>
-        </is>
-      </c>
-      <c r="AP29" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="AQ29" t="inlineStr">
-        <is>
-          <t>4A低加抽汽止回阀后疏水阀关指令
-CLS DMD</t>
+      <c r="S29" s="199" t="n"/>
+      <c r="T29" s="205" t="n"/>
+      <c r="U29" s="205" t="n"/>
+      <c r="V29" s="205" t="n"/>
+      <c r="W29" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="X29" s="205" t="n"/>
+      <c r="Y29" s="205" t="n"/>
+      <c r="Z29" s="205" t="n"/>
+      <c r="AA29" s="205" t="n"/>
+      <c r="AB29" s="205" t="n"/>
+      <c r="AC29" s="205" t="n"/>
+      <c r="AD29" s="205" t="n"/>
+      <c r="AE29" s="205" t="n"/>
+      <c r="AF29" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="AG29" s="205" t="n"/>
+      <c r="AH29" s="205" t="n"/>
+      <c r="AI29" s="205" t="n"/>
+      <c r="AJ29" s="205" t="n"/>
+      <c r="AK29" s="205" t="n"/>
+      <c r="AL29" s="205" t="n"/>
+      <c r="AM29" s="205" t="n"/>
+      <c r="AN29" s="205" t="n"/>
+      <c r="AO29" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="AP29" s="205" t="n"/>
+      <c r="AQ29" s="205" t="n"/>
+      <c r="AR29" s="205" t="n"/>
+      <c r="AS29" s="205" t="n"/>
+      <c r="AT29" s="205" t="n"/>
+      <c r="AU29" s="205" t="n"/>
+      <c r="AV29" s="205" t="n"/>
+      <c r="AW29" s="205" t="n"/>
+      <c r="AX29" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="AY29" s="205" t="n"/>
+      <c r="AZ29" s="205" t="n"/>
+      <c r="BA29" s="205" t="n"/>
+      <c r="BB29" s="205" t="n"/>
+      <c r="BC29" s="205" t="n"/>
+      <c r="BD29" s="205" t="n"/>
+      <c r="BE29" s="205" t="n"/>
+      <c r="BF29" s="205" t="n"/>
+      <c r="BG29" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="BH29" s="205" t="n"/>
+      <c r="BI29" s="205" t="n"/>
+      <c r="BJ29" s="205" t="n"/>
+      <c r="BK29" s="205" t="n"/>
+      <c r="BL29" s="205" t="n"/>
+      <c r="BM29" s="205" t="n"/>
+      <c r="BN29" s="205" t="n"/>
+      <c r="BO29" s="205" t="n"/>
+      <c r="BP29" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="BQ29" s="205" t="n"/>
+      <c r="BR29" s="205" t="n"/>
+      <c r="BS29" s="205" t="n"/>
+      <c r="BT29" s="205" t="n"/>
+      <c r="BU29" s="205" t="n"/>
+      <c r="BV29" s="205" t="n"/>
+      <c r="BW29" s="205" t="n"/>
+      <c r="BX29" s="205" t="n"/>
+      <c r="BY29" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="BZ29" s="205" t="n"/>
+      <c r="CA29" s="205" t="n"/>
+      <c r="CB29" s="205" t="n"/>
+      <c r="CC29" s="205" t="n"/>
+      <c r="CD29" s="205" t="n"/>
+      <c r="CE29" s="205" t="n"/>
+      <c r="CF29" s="205" t="n"/>
+      <c r="CG29" s="205" t="n"/>
+      <c r="CH29" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="CI29" s="205" t="n"/>
+      <c r="CJ29" s="205" t="n"/>
+      <c r="CK29" s="205" t="n"/>
+      <c r="CL29" s="205" t="n"/>
+      <c r="CM29" s="205" t="n"/>
+      <c r="CN29" s="205" t="n"/>
+      <c r="CO29" s="205" t="n"/>
+      <c r="CP29" s="205" t="n"/>
+      <c r="CQ29" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="CR29" s="205" t="n"/>
+      <c r="CS29" s="205" t="n"/>
+      <c r="CT29" s="205" t="n"/>
+      <c r="CU29" s="205" t="n"/>
+      <c r="CV29" s="205" t="n"/>
+      <c r="CW29" s="205" t="n"/>
+      <c r="CX29" s="205" t="n"/>
+      <c r="CY29" s="205" t="n"/>
+      <c r="CZ29" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="DA29" s="205" t="n"/>
+      <c r="DB29" s="205" t="n"/>
+      <c r="DC29" s="205" t="n"/>
+      <c r="DD29" s="205" t="n"/>
+      <c r="DE29" s="205" t="n"/>
+      <c r="DF29" s="205" t="n"/>
+      <c r="DG29" s="205" t="n"/>
+      <c r="DH29" s="205" t="n"/>
+      <c r="DI29" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="DJ29" s="205" t="n"/>
+      <c r="DK29" s="205" t="n"/>
+      <c r="DL29" s="205" t="n"/>
+      <c r="DM29" s="205" t="n"/>
+      <c r="DN29" s="205" t="n"/>
+      <c r="DO29" s="205" t="n"/>
+      <c r="DP29" s="205" t="n"/>
+      <c r="DQ29" s="205" t="n"/>
+      <c r="DR29" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="DS29" s="205" t="n"/>
+      <c r="DT29" s="205" t="n"/>
+      <c r="DU29" s="205" t="n"/>
+      <c r="DV29" s="205" t="n"/>
+      <c r="DW29" s="205" t="n"/>
+      <c r="DX29" s="205" t="n"/>
+      <c r="DY29" s="205" t="n"/>
+      <c r="DZ29" s="205" t="n"/>
+      <c r="EA29" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="EB29" s="205" t="n"/>
+      <c r="EC29" s="205" t="n"/>
+      <c r="ED29" s="205" t="n"/>
+      <c r="EE29" s="205" t="n"/>
+      <c r="EF29" s="205" t="n"/>
+      <c r="EG29" s="205" t="n"/>
+      <c r="EH29" s="205" t="n"/>
+      <c r="EI29" s="205" t="n"/>
+      <c r="EJ29" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
         </is>
       </c>
     </row>
@@ -28902,7 +31932,7 @@
           <t>OP</t>
         </is>
       </c>
-      <c r="D30" s="200" t="inlineStr">
+      <c r="D30" s="202" t="inlineStr">
         <is>
           <t>4A低加抽汽止回阀后疏水阀全开
 4A LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
@@ -28972,6 +32002,61 @@
           <t>无描述</t>
         </is>
       </c>
+      <c r="AZ30" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BI30" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BR30" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CA30" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CJ30" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CS30" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DB30" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DK30" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DT30" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EC30" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EL30" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="34.5" customFormat="1" customHeight="1" s="107">
       <c r="A31" s="67" t="n">
@@ -29556,110 +32641,254 @@
       <c r="S38" s="67" t="n"/>
     </row>
     <row r="39" ht="34.5" customFormat="1" customHeight="1" s="107">
-      <c r="A39" s="67" t="n">
+      <c r="A39" s="199" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="87" t="inlineStr">
+      <c r="B39" s="200" t="inlineStr">
         <is>
           <t>3TFL421VL</t>
         </is>
       </c>
-      <c r="C39" s="199" t="inlineStr">
+      <c r="C39" s="201" t="inlineStr">
         <is>
           <t>CO</t>
         </is>
       </c>
-      <c r="D39" s="200" t="inlineStr">
+      <c r="D39" s="202" t="inlineStr">
         <is>
           <t xml:space="preserve">4B低加抽汽止回阀后疏水阀关指令
 4B LP HTR EXTRN STM AFT N.R.V. DRN VLV. CLS DMD </t>
         </is>
       </c>
-      <c r="E39" s="67" t="inlineStr">
+      <c r="E39" s="199" t="inlineStr">
         <is>
           <t>NC/A</t>
         </is>
       </c>
-      <c r="F39" s="67" t="inlineStr">
+      <c r="F39" s="199" t="inlineStr">
         <is>
           <t>NC</t>
         </is>
       </c>
-      <c r="G39" s="67" t="inlineStr">
+      <c r="G39" s="199" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="H39" s="67" t="inlineStr">
+      <c r="H39" s="199" t="inlineStr">
         <is>
           <t>DO</t>
         </is>
       </c>
-      <c r="I39" s="67" t="n">
+      <c r="I39" s="199" t="n">
         <v>1</v>
       </c>
-      <c r="J39" s="67" t="inlineStr">
+      <c r="J39" s="199" t="inlineStr">
         <is>
           <t>DCS</t>
         </is>
       </c>
-      <c r="K39" s="67" t="n"/>
-      <c r="L39" s="67" t="n"/>
-      <c r="M39" s="67" t="n"/>
-      <c r="N39" s="67" t="n"/>
-      <c r="O39" s="89" t="inlineStr">
+      <c r="K39" s="199" t="n"/>
+      <c r="L39" s="199" t="n"/>
+      <c r="M39" s="199" t="n"/>
+      <c r="N39" s="199" t="n"/>
+      <c r="O39" s="203" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="P39" s="121" t="inlineStr">
+      <c r="P39" s="204" t="inlineStr">
         <is>
           <t>48VDC电磁阀
 48VDC SOLENOID VALVE</t>
         </is>
       </c>
-      <c r="Q39" s="67" t="inlineStr">
+      <c r="Q39" s="199" t="inlineStr">
         <is>
           <t>FD-22</t>
         </is>
       </c>
-      <c r="R39" s="121" t="inlineStr">
+      <c r="R39" s="204" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S39" s="67" t="n"/>
-      <c r="X39" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>4B低加抽汽止回阀后疏水阀关指令
-CLS DMD</t>
-        </is>
-      </c>
-      <c r="AG39" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="AH39" t="inlineStr">
-        <is>
-          <t>4B低加抽汽止回阀后疏水阀关指令
-CLS DMD</t>
-        </is>
-      </c>
-      <c r="AP39" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="AQ39" t="inlineStr">
-        <is>
-          <t>4B低加抽汽止回阀后疏水阀关指令
-CLS DMD</t>
+      <c r="S39" s="199" t="n"/>
+      <c r="T39" s="205" t="n"/>
+      <c r="U39" s="205" t="n"/>
+      <c r="V39" s="205" t="n"/>
+      <c r="W39" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="X39" s="205" t="n"/>
+      <c r="Y39" s="205" t="n"/>
+      <c r="Z39" s="205" t="n"/>
+      <c r="AA39" s="205" t="n"/>
+      <c r="AB39" s="205" t="n"/>
+      <c r="AC39" s="205" t="n"/>
+      <c r="AD39" s="205" t="n"/>
+      <c r="AE39" s="205" t="n"/>
+      <c r="AF39" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="AG39" s="205" t="n"/>
+      <c r="AH39" s="205" t="n"/>
+      <c r="AI39" s="205" t="n"/>
+      <c r="AJ39" s="205" t="n"/>
+      <c r="AK39" s="205" t="n"/>
+      <c r="AL39" s="205" t="n"/>
+      <c r="AM39" s="205" t="n"/>
+      <c r="AN39" s="205" t="n"/>
+      <c r="AO39" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="AP39" s="205" t="n"/>
+      <c r="AQ39" s="205" t="n"/>
+      <c r="AR39" s="205" t="n"/>
+      <c r="AS39" s="205" t="n"/>
+      <c r="AT39" s="205" t="n"/>
+      <c r="AU39" s="205" t="n"/>
+      <c r="AV39" s="205" t="n"/>
+      <c r="AW39" s="205" t="n"/>
+      <c r="AX39" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="AY39" s="205" t="n"/>
+      <c r="AZ39" s="205" t="n"/>
+      <c r="BA39" s="205" t="n"/>
+      <c r="BB39" s="205" t="n"/>
+      <c r="BC39" s="205" t="n"/>
+      <c r="BD39" s="205" t="n"/>
+      <c r="BE39" s="205" t="n"/>
+      <c r="BF39" s="205" t="n"/>
+      <c r="BG39" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="BH39" s="205" t="n"/>
+      <c r="BI39" s="205" t="n"/>
+      <c r="BJ39" s="205" t="n"/>
+      <c r="BK39" s="205" t="n"/>
+      <c r="BL39" s="205" t="n"/>
+      <c r="BM39" s="205" t="n"/>
+      <c r="BN39" s="205" t="n"/>
+      <c r="BO39" s="205" t="n"/>
+      <c r="BP39" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="BQ39" s="205" t="n"/>
+      <c r="BR39" s="205" t="n"/>
+      <c r="BS39" s="205" t="n"/>
+      <c r="BT39" s="205" t="n"/>
+      <c r="BU39" s="205" t="n"/>
+      <c r="BV39" s="205" t="n"/>
+      <c r="BW39" s="205" t="n"/>
+      <c r="BX39" s="205" t="n"/>
+      <c r="BY39" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="BZ39" s="205" t="n"/>
+      <c r="CA39" s="205" t="n"/>
+      <c r="CB39" s="205" t="n"/>
+      <c r="CC39" s="205" t="n"/>
+      <c r="CD39" s="205" t="n"/>
+      <c r="CE39" s="205" t="n"/>
+      <c r="CF39" s="205" t="n"/>
+      <c r="CG39" s="205" t="n"/>
+      <c r="CH39" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="CI39" s="205" t="n"/>
+      <c r="CJ39" s="205" t="n"/>
+      <c r="CK39" s="205" t="n"/>
+      <c r="CL39" s="205" t="n"/>
+      <c r="CM39" s="205" t="n"/>
+      <c r="CN39" s="205" t="n"/>
+      <c r="CO39" s="205" t="n"/>
+      <c r="CP39" s="205" t="n"/>
+      <c r="CQ39" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="CR39" s="205" t="n"/>
+      <c r="CS39" s="205" t="n"/>
+      <c r="CT39" s="205" t="n"/>
+      <c r="CU39" s="205" t="n"/>
+      <c r="CV39" s="205" t="n"/>
+      <c r="CW39" s="205" t="n"/>
+      <c r="CX39" s="205" t="n"/>
+      <c r="CY39" s="205" t="n"/>
+      <c r="CZ39" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="DA39" s="205" t="n"/>
+      <c r="DB39" s="205" t="n"/>
+      <c r="DC39" s="205" t="n"/>
+      <c r="DD39" s="205" t="n"/>
+      <c r="DE39" s="205" t="n"/>
+      <c r="DF39" s="205" t="n"/>
+      <c r="DG39" s="205" t="n"/>
+      <c r="DH39" s="205" t="n"/>
+      <c r="DI39" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="DJ39" s="205" t="n"/>
+      <c r="DK39" s="205" t="n"/>
+      <c r="DL39" s="205" t="n"/>
+      <c r="DM39" s="205" t="n"/>
+      <c r="DN39" s="205" t="n"/>
+      <c r="DO39" s="205" t="n"/>
+      <c r="DP39" s="205" t="n"/>
+      <c r="DQ39" s="205" t="n"/>
+      <c r="DR39" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="DS39" s="205" t="n"/>
+      <c r="DT39" s="205" t="n"/>
+      <c r="DU39" s="205" t="n"/>
+      <c r="DV39" s="205" t="n"/>
+      <c r="DW39" s="205" t="n"/>
+      <c r="DX39" s="205" t="n"/>
+      <c r="DY39" s="205" t="n"/>
+      <c r="DZ39" s="205" t="n"/>
+      <c r="EA39" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
+        </is>
+      </c>
+      <c r="EB39" s="205" t="n"/>
+      <c r="EC39" s="205" t="n"/>
+      <c r="ED39" s="205" t="n"/>
+      <c r="EE39" s="205" t="n"/>
+      <c r="EF39" s="205" t="n"/>
+      <c r="EG39" s="205" t="n"/>
+      <c r="EH39" s="205" t="n"/>
+      <c r="EI39" s="205" t="n"/>
+      <c r="EJ39" s="205" t="inlineStr">
+        <is>
+          <t>CAD图纸中不存在该信号位号</t>
         </is>
       </c>
     </row>
@@ -29677,7 +32906,7 @@
           <t>OP</t>
         </is>
       </c>
-      <c r="D40" s="200" t="inlineStr">
+      <c r="D40" s="202" t="inlineStr">
         <is>
           <t>4B低加抽汽止回阀后疏水阀全开
 4B LP HTR EXTRN STM AFT N.R.V. DRN VLV. OPEN POSN</t>
@@ -29747,6 +32976,61 @@
           <t>无描述</t>
         </is>
       </c>
+      <c r="AZ40" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BI40" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BR40" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CA40" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CJ40" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CS40" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DB40" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DK40" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DT40" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EC40" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EL40" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
     </row>
     <row r="41" ht="34.5" customFormat="1" customHeight="1" s="107">
       <c r="A41" s="67" t="n">
@@ -33710,17 +36994,17 @@
       <c r="A96" s="67" t="n">
         <v>95</v>
       </c>
-      <c r="B96" s="87" t="inlineStr">
+      <c r="B96" s="200" t="inlineStr">
         <is>
           <t>3TFL011VL</t>
         </is>
       </c>
-      <c r="C96" s="199" t="inlineStr">
+      <c r="C96" s="105" t="inlineStr">
         <is>
           <t>OD</t>
         </is>
       </c>
-      <c r="D96" s="201" t="inlineStr">
+      <c r="D96" s="104" t="inlineStr">
         <is>
           <t>3&amp;4低加凝结水旁路阀开指令
 3&amp;4 LP HTR WTR BYP M.O.V.  OPEN DMD</t>
@@ -33781,15 +37065,14 @@
         </is>
       </c>
       <c r="S96" s="67" t="n"/>
-      <c r="X96" t="inlineStr">
-        <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="Y96" t="inlineStr">
-        <is>
-          <t>3&amp;4低加凝结水旁路阀执行机构故障
-3&amp;4 LP HTR WTR BYP M.O.V. FLT</t>
+      <c r="EA96" t="inlineStr">
+        <is>
+          <t>KTFL008VL</t>
+        </is>
+      </c>
+      <c r="EJ96" t="inlineStr">
+        <is>
+          <t>KTFL008VL</t>
         </is>
       </c>
     </row>
@@ -33797,17 +37080,17 @@
       <c r="A97" s="67" t="n">
         <v>96</v>
       </c>
-      <c r="B97" s="202" t="inlineStr">
+      <c r="B97" s="200" t="inlineStr">
         <is>
           <t>3TFL011VL</t>
         </is>
       </c>
-      <c r="C97" s="199" t="inlineStr">
+      <c r="C97" s="105" t="inlineStr">
         <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="D97" s="201" t="inlineStr">
+      <c r="D97" s="104" t="inlineStr">
         <is>
           <t>3&amp;4低加凝结水旁路阀关指令
 3&amp;4 LP HTR WTR BYP M.O.V. CLS DMD</t>
@@ -33857,7 +37140,7 @@
 CONTACT</t>
         </is>
       </c>
-      <c r="Q97" s="203" t="inlineStr">
+      <c r="Q97" s="67" t="inlineStr">
         <is>
           <t>FD-33</t>
         </is>
@@ -33868,26 +37151,14 @@
         </is>
       </c>
       <c r="S97" s="67" t="n"/>
-      <c r="W97" t="inlineStr">
-        <is>
-          <t>KTFL010VL</t>
-        </is>
-      </c>
-      <c r="X97" t="inlineStr">
-        <is>
-          <t>OP</t>
-        </is>
-      </c>
-      <c r="Y97" t="inlineStr">
-        <is>
-          <t>低加出水母管至凝汽器电动阀全开
-LP HTR WTR OLET HDR TO CONDSR M.O.V. 
-OPEN POSN</t>
-        </is>
-      </c>
-      <c r="AA97" t="inlineStr">
-        <is>
-          <t>FD-34</t>
+      <c r="EA97" t="inlineStr">
+        <is>
+          <t>KTFL008VL</t>
+        </is>
+      </c>
+      <c r="EJ97" t="inlineStr">
+        <is>
+          <t>KTFL008VL</t>
         </is>
       </c>
     </row>
@@ -33965,17 +37236,17 @@
       <c r="A99" s="67" t="n">
         <v>98</v>
       </c>
-      <c r="B99" s="202" t="inlineStr">
+      <c r="B99" s="87" t="inlineStr">
         <is>
           <t>3TFL011VL</t>
         </is>
       </c>
-      <c r="C99" s="199" t="inlineStr">
+      <c r="C99" s="105" t="inlineStr">
         <is>
           <t>CP</t>
         </is>
       </c>
-      <c r="D99" s="201" t="inlineStr">
+      <c r="D99" s="104" t="inlineStr">
         <is>
           <t>3&amp;4低加凝结水旁路阀全关
 3&amp;4 LP HTR WTR BYP M.O.V.  CLS POSN</t>
@@ -34019,7 +37290,7 @@
         </is>
       </c>
       <c r="P99" s="121" t="n"/>
-      <c r="Q99" s="203" t="inlineStr">
+      <c r="Q99" s="67" t="inlineStr">
         <is>
           <t>FD-33</t>
         </is>
@@ -34030,26 +37301,6 @@
         </is>
       </c>
       <c r="S99" s="67" t="n"/>
-      <c r="W99" t="inlineStr">
-        <is>
-          <t>KTFL010VL</t>
-        </is>
-      </c>
-      <c r="X99" t="inlineStr">
-        <is>
-          <t>RC</t>
-        </is>
-      </c>
-      <c r="Y99" t="inlineStr">
-        <is>
-          <t>无描述</t>
-        </is>
-      </c>
-      <c r="AA99" t="inlineStr">
-        <is>
-          <t>FD-34</t>
-        </is>
-      </c>
     </row>
     <row r="100" ht="34.5" customFormat="1" customHeight="1" s="107">
       <c r="A100" s="67" t="n">
@@ -34060,12 +37311,12 @@
           <t>3TFL011VL</t>
         </is>
       </c>
-      <c r="C100" s="199" t="inlineStr">
+      <c r="C100" s="105" t="inlineStr">
         <is>
           <t>FP</t>
         </is>
       </c>
-      <c r="D100" s="201" t="inlineStr">
+      <c r="D100" s="104" t="inlineStr">
         <is>
           <t>3&amp;4低加凝结水旁路阀执行机构故障
 3&amp;4 LP HTR WTR BYP M.O.V.  FLT</t>
@@ -34120,17 +37371,6 @@
         </is>
       </c>
       <c r="S100" s="67" t="n"/>
-      <c r="X100" t="inlineStr">
-        <is>
-          <t>CP</t>
-        </is>
-      </c>
-      <c r="Y100" t="inlineStr">
-        <is>
-          <t>3&amp;4低加凝结水旁路阀全关
-3&amp;4 LP HTR WTR BYP M.O.V. CLS POSN</t>
-        </is>
-      </c>
     </row>
     <row r="101" ht="34.5" customFormat="1" customHeight="1" s="107">
       <c r="A101" s="67" t="n">
@@ -34211,12 +37451,12 @@
           <t>3TFL010VL</t>
         </is>
       </c>
-      <c r="C102" s="199" t="inlineStr">
+      <c r="C102" s="105" t="inlineStr">
         <is>
           <t>OD</t>
         </is>
       </c>
-      <c r="D102" s="201" t="inlineStr">
+      <c r="D102" s="206" t="inlineStr">
         <is>
           <t>低加出水母管至凝汽器电动阀开指令
 LP HTR WTR OLET HDR TO CONDSR M.O.V. OPEN DMD</t>
@@ -34277,26 +37517,7 @@
         </is>
       </c>
       <c r="S102" s="67" t="n"/>
-      <c r="X102" t="inlineStr">
-        <is>
-          <t>CP</t>
-        </is>
-      </c>
       <c r="Y102" t="inlineStr">
-        <is>
-          <t>低加出水母管至凝汽器电动阀全关
-LP HTR WTR OLET HDR TO CONDSR M.O.V. 
-CLS POSNLP HTR WTR OLET HDR TO CONDSR M.O.V. 
-FLT</t>
-        </is>
-      </c>
-      <c r="AH102" t="inlineStr">
-        <is>
-          <t>低加出水母管至凝汽器电动阀开指令
-OPN DMD</t>
-        </is>
-      </c>
-      <c r="AQ102" t="inlineStr">
         <is>
           <t>低加出水母管至凝汽器电动阀开指令
 OPN DMD</t>
@@ -34307,7 +37528,7 @@
       <c r="A103" s="67" t="n">
         <v>102</v>
       </c>
-      <c r="B103" s="202" t="inlineStr">
+      <c r="B103" s="87" t="inlineStr">
         <is>
           <t>3TFL010VL</t>
         </is>
@@ -34317,7 +37538,7 @@
           <t>CD</t>
         </is>
       </c>
-      <c r="D103" s="201" t="inlineStr">
+      <c r="D103" s="206" t="inlineStr">
         <is>
           <t>低加出水母管至凝汽器电动阀关指令
 LP HTR WTR OLET HDR TO CONDSR M.O.V. CLS DMD</t>
@@ -34367,7 +37588,7 @@
 CONTACT</t>
         </is>
       </c>
-      <c r="Q103" s="203" t="inlineStr">
+      <c r="Q103" s="67" t="inlineStr">
         <is>
           <t>FD-34</t>
         </is>
@@ -34378,29 +37599,7 @@
         </is>
       </c>
       <c r="S103" s="67" t="n"/>
-      <c r="W103" t="inlineStr">
-        <is>
-          <t>KTFL008VL</t>
-        </is>
-      </c>
       <c r="Y103" t="inlineStr">
-        <is>
-          <t>关指令
-CLS DMD</t>
-        </is>
-      </c>
-      <c r="AA103" t="inlineStr">
-        <is>
-          <t>FD-33</t>
-        </is>
-      </c>
-      <c r="AH103" t="inlineStr">
-        <is>
-          <t>低加出水母管至凝汽器电动阀关指令
-CLS DMD</t>
-        </is>
-      </c>
-      <c r="AQ103" t="inlineStr">
         <is>
           <t>低加出水母管至凝汽器电动阀关指令
 CLS DMD</t>
@@ -34416,12 +37615,12 @@
           <t>3TFL010VL</t>
         </is>
       </c>
-      <c r="C104" s="199" t="inlineStr">
+      <c r="C104" s="105" t="inlineStr">
         <is>
           <t>OP</t>
         </is>
       </c>
-      <c r="D104" s="201" t="inlineStr">
+      <c r="D104" s="104" t="inlineStr">
         <is>
           <t>低加出水母管至凝汽器电动阀全开
 LP HTR WTR OLET HDR TO CONDSR M.O.V. OPEN POSN</t>
@@ -34476,34 +37675,22 @@
         </is>
       </c>
       <c r="S104" s="67" t="n"/>
-      <c r="X104" t="inlineStr">
-        <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="Y104" t="inlineStr">
-        <is>
-          <t>低加出水母管至凝汽器电动阀执行机构故障低加出水母管至凝汽器电动阀遥控
-LP HTR WTR OLET HDR TO CONDSR M.O.V. 
-REMOTE</t>
-        </is>
-      </c>
     </row>
     <row r="105" ht="34.5" customFormat="1" customHeight="1" s="107">
       <c r="A105" s="67" t="n">
         <v>104</v>
       </c>
-      <c r="B105" s="202" t="inlineStr">
+      <c r="B105" s="87" t="inlineStr">
         <is>
           <t>3TFL010VL</t>
         </is>
       </c>
-      <c r="C105" s="199" t="inlineStr">
+      <c r="C105" s="105" t="inlineStr">
         <is>
           <t>CP</t>
         </is>
       </c>
-      <c r="D105" s="201" t="inlineStr">
+      <c r="D105" s="206" t="inlineStr">
         <is>
           <t>低加出水母管至凝汽器电动阀全关
 LP HTR WTR OLET HDR TO CONDSR M.O.V. CLS POSN</t>
@@ -34547,7 +37734,7 @@
         </is>
       </c>
       <c r="P105" s="121" t="n"/>
-      <c r="Q105" s="203" t="inlineStr">
+      <c r="Q105" s="67" t="inlineStr">
         <is>
           <t>FD-34</t>
         </is>
@@ -34558,41 +37745,88 @@
         </is>
       </c>
       <c r="S105" s="67" t="n"/>
-      <c r="W105" t="inlineStr">
-        <is>
-          <t>KTFL008VL</t>
-        </is>
-      </c>
-      <c r="X105" t="inlineStr">
-        <is>
-          <t>OD</t>
-        </is>
-      </c>
       <c r="Y105" t="inlineStr">
         <is>
-          <t>开指令
-OPN DMD</t>
-        </is>
-      </c>
-      <c r="AA105" t="inlineStr">
-        <is>
-          <t>FD-33</t>
+          <t>低加出水母管至凝汽器电动阀全关
+LP HTR WTR OLET HDR TO CONDSR M.O.V. CLS POSNLP HTR WTR OLET HDR TO CONDSR M.O.V. FLT</t>
         </is>
       </c>
       <c r="AH105" t="inlineStr">
         <is>
           <t>低加出水母管至凝汽器电动阀全关
-LP HTR WTR OLET HDR TO CONDSR M.O.V. 
-CLS POSNLP HTR WTR OLET HDR TO CONDSR M.O.V. 
-FLT</t>
+LP HTR WTR OLET HDR TO CONDSR M.O.V. CLS POSNLP HTR WTR OLET HDR TO CONDSR M.O.V. FLT</t>
         </is>
       </c>
       <c r="AQ105" t="inlineStr">
         <is>
           <t>低加出水母管至凝汽器电动阀全关
-LP HTR WTR OLET HDR TO CONDSR M.O.V. 
-CLS POSNLP HTR WTR OLET HDR TO CONDSR M.O.V. 
-FLT</t>
+LP HTR WTR OLET HDR TO CONDSR M.O.V. CLS POSNLP HTR WTR OLET HDR TO CONDSR M.O.V. FLT</t>
+        </is>
+      </c>
+      <c r="AZ105" t="inlineStr">
+        <is>
+          <t>低加出水母管至凝汽器电动阀全关
+LP HTR WTR OLET HDR TO CONDSR M.O.V. CLS POSNLP HTR WTR OLET HDR TO CONDSR M.O.V. FLT</t>
+        </is>
+      </c>
+      <c r="BI105" t="inlineStr">
+        <is>
+          <t>低加出水母管至凝汽器电动阀全关
+LP HTR WTR OLET HDR TO CONDSR M.O.V. CLS POSNLP HTR WTR OLET HDR TO CONDSR M.O.V. FLT</t>
+        </is>
+      </c>
+      <c r="BR105" t="inlineStr">
+        <is>
+          <t>低加出水母管至凝汽器电动阀全关
+LP HTR WTR OLET HDR TO CONDSR M.O.V. CLS POSNLP HTR WTR OLET HDR TO CONDSR M.O.V. FLT</t>
+        </is>
+      </c>
+      <c r="CA105" t="inlineStr">
+        <is>
+          <t>低加出水母管至凝汽器电动阀全关
+LP HTR WTR OLET HDR TO CONDSR M.O.V. CLS POSNLP HTR WTR OLET HDR TO CONDSR M.O.V. FLT</t>
+        </is>
+      </c>
+      <c r="CJ105" t="inlineStr">
+        <is>
+          <t>低加出水母管至凝汽器电动阀全关
+LP HTR WTR OLET HDR TO CONDSR M.O.V. CLS POSNLP HTR WTR OLET HDR TO CONDSR M.O.V. FLT</t>
+        </is>
+      </c>
+      <c r="CS105" t="inlineStr">
+        <is>
+          <t>低加出水母管至凝汽器电动阀全关
+LP HTR WTR OLET HDR TO CONDSR M.O.V. CLS POSNLP HTR WTR OLET HDR TO CONDSR M.O.V. FLT</t>
+        </is>
+      </c>
+      <c r="DB105" t="inlineStr">
+        <is>
+          <t>低加出水母管至凝汽器电动阀全关
+LP HTR WTR OLET HDR TO CONDSR M.O.V. CLS POSNLP HTR WTR OLET HDR TO CONDSR M.O.V. FLT</t>
+        </is>
+      </c>
+      <c r="DK105" t="inlineStr">
+        <is>
+          <t>低加出水母管至凝汽器电动阀全关
+LP HTR WTR OLET HDR TO CONDSR M.O.V. CLS POSNLP HTR WTR OLET HDR TO CONDSR M.O.V. FLT</t>
+        </is>
+      </c>
+      <c r="DT105" t="inlineStr">
+        <is>
+          <t>低加出水母管至凝汽器电动阀全关
+LP HTR WTR OLET HDR TO CONDSR M.O.V. CLS POSNLP HTR WTR OLET HDR TO CONDSR M.O.V. FLT</t>
+        </is>
+      </c>
+      <c r="EC105" t="inlineStr">
+        <is>
+          <t>低加出水母管至凝汽器电动阀全关
+LP HTR WTR OLET HDR TO CONDSR M.O.V. CLS POSNLP HTR WTR OLET HDR TO CONDSR M.O.V. FLT</t>
+        </is>
+      </c>
+      <c r="EL105" t="inlineStr">
+        <is>
+          <t>低加出水母管至凝汽器电动阀全关
+LP HTR WTR OLET HDR TO CONDSR M.O.V. CLS POSNLP HTR WTR OLET HDR TO CONDSR M.O.V. FLT</t>
         </is>
       </c>
     </row>
@@ -34605,12 +37839,12 @@
           <t>3TFL010VL</t>
         </is>
       </c>
-      <c r="C106" s="199" t="inlineStr">
+      <c r="C106" s="105" t="inlineStr">
         <is>
           <t>FP</t>
         </is>
       </c>
-      <c r="D106" s="201" t="inlineStr">
+      <c r="D106" s="206" t="inlineStr">
         <is>
           <t>低加出水母管至凝汽器电动阀执行机构故障
 LP HTR WTR OLET HDR TO CONDSR M.O.V. FLT</t>
@@ -34665,29 +37899,88 @@
         </is>
       </c>
       <c r="S106" s="67" t="n"/>
-      <c r="X106" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
       <c r="Y106" t="inlineStr">
         <is>
-          <t>低加出水母管至凝汽器电动阀关指令
-CLS DMD</t>
+          <t>低加出水母管至凝汽器电动阀执行机构故障低加出水母管至凝汽器电动阀遥控
+LP HTR WTR OLET HDR TO CONDSR M.O.V. REMOTE</t>
         </is>
       </c>
       <c r="AH106" t="inlineStr">
         <is>
           <t>低加出水母管至凝汽器电动阀执行机构故障低加出水母管至凝汽器电动阀遥控
-LP HTR WTR OLET HDR TO CONDSR M.O.V. 
-REMOTE</t>
+LP HTR WTR OLET HDR TO CONDSR M.O.V. REMOTE</t>
         </is>
       </c>
       <c r="AQ106" t="inlineStr">
         <is>
           <t>低加出水母管至凝汽器电动阀执行机构故障低加出水母管至凝汽器电动阀遥控
-LP HTR WTR OLET HDR TO CONDSR M.O.V. 
-REMOTE</t>
+LP HTR WTR OLET HDR TO CONDSR M.O.V. REMOTE</t>
+        </is>
+      </c>
+      <c r="AZ106" t="inlineStr">
+        <is>
+          <t>低加出水母管至凝汽器电动阀执行机构故障低加出水母管至凝汽器电动阀遥控
+LP HTR WTR OLET HDR TO CONDSR M.O.V. REMOTE</t>
+        </is>
+      </c>
+      <c r="BI106" t="inlineStr">
+        <is>
+          <t>低加出水母管至凝汽器电动阀执行机构故障低加出水母管至凝汽器电动阀遥控
+LP HTR WTR OLET HDR TO CONDSR M.O.V. REMOTE</t>
+        </is>
+      </c>
+      <c r="BR106" t="inlineStr">
+        <is>
+          <t>低加出水母管至凝汽器电动阀执行机构故障低加出水母管至凝汽器电动阀遥控
+LP HTR WTR OLET HDR TO CONDSR M.O.V. REMOTE</t>
+        </is>
+      </c>
+      <c r="CA106" t="inlineStr">
+        <is>
+          <t>低加出水母管至凝汽器电动阀执行机构故障低加出水母管至凝汽器电动阀遥控
+LP HTR WTR OLET HDR TO CONDSR M.O.V. REMOTE</t>
+        </is>
+      </c>
+      <c r="CJ106" t="inlineStr">
+        <is>
+          <t>低加出水母管至凝汽器电动阀执行机构故障低加出水母管至凝汽器电动阀遥控
+LP HTR WTR OLET HDR TO CONDSR M.O.V. REMOTE</t>
+        </is>
+      </c>
+      <c r="CS106" t="inlineStr">
+        <is>
+          <t>低加出水母管至凝汽器电动阀执行机构故障低加出水母管至凝汽器电动阀遥控
+LP HTR WTR OLET HDR TO CONDSR M.O.V. REMOTE</t>
+        </is>
+      </c>
+      <c r="DB106" t="inlineStr">
+        <is>
+          <t>低加出水母管至凝汽器电动阀执行机构故障低加出水母管至凝汽器电动阀遥控
+LP HTR WTR OLET HDR TO CONDSR M.O.V. REMOTE</t>
+        </is>
+      </c>
+      <c r="DK106" t="inlineStr">
+        <is>
+          <t>低加出水母管至凝汽器电动阀执行机构故障低加出水母管至凝汽器电动阀遥控
+LP HTR WTR OLET HDR TO CONDSR M.O.V. REMOTE</t>
+        </is>
+      </c>
+      <c r="DT106" t="inlineStr">
+        <is>
+          <t>低加出水母管至凝汽器电动阀执行机构故障低加出水母管至凝汽器电动阀遥控
+LP HTR WTR OLET HDR TO CONDSR M.O.V. REMOTE</t>
+        </is>
+      </c>
+      <c r="EC106" t="inlineStr">
+        <is>
+          <t>低加出水母管至凝汽器电动阀执行机构故障低加出水母管至凝汽器电动阀遥控
+LP HTR WTR OLET HDR TO CONDSR M.O.V. REMOTE</t>
+        </is>
+      </c>
+      <c r="EL106" t="inlineStr">
+        <is>
+          <t>低加出水母管至凝汽器电动阀执行机构故障低加出水母管至凝汽器电动阀遥控
+LP HTR WTR OLET HDR TO CONDSR M.O.V. REMOTE</t>
         </is>
       </c>
     </row>
@@ -34700,12 +37993,12 @@
           <t>3TFL010VL</t>
         </is>
       </c>
-      <c r="C107" s="199" t="inlineStr">
+      <c r="C107" s="105" t="inlineStr">
         <is>
           <t>RC</t>
         </is>
       </c>
-      <c r="D107" s="201" t="inlineStr">
+      <c r="D107" s="206" t="inlineStr">
         <is>
           <t>低加出水母管至凝汽器电动阀遥控
 LP HTR WTR OLET HDR TO CONDSR M.O.V. REMOTE</t>
@@ -34760,15 +38053,9 @@
         </is>
       </c>
       <c r="S107" s="67" t="n"/>
-      <c r="X107" t="inlineStr">
-        <is>
-          <t>OD</t>
-        </is>
-      </c>
       <c r="Y107" t="inlineStr">
         <is>
-          <t>低加出水母管至凝汽器电动阀开指令
-OPN DMD</t>
+          <t>无描述</t>
         </is>
       </c>
       <c r="AH107" t="inlineStr">
@@ -34777,6 +38064,61 @@
         </is>
       </c>
       <c r="AQ107" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="AZ107" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BI107" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BR107" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CA107" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CJ107" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CS107" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DB107" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DK107" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DT107" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EC107" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EL107" t="inlineStr">
         <is>
           <t>无描述</t>
         </is>
@@ -34804,7 +38146,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU20"/>
+  <dimension ref="A1:EP20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
@@ -34848,6 +38190,61 @@
     <col width="15" customWidth="1" min="43" max="43"/>
     <col width="15" customWidth="1" min="44" max="44"/>
     <col width="15" customWidth="1" min="45" max="45"/>
+    <col width="15" customWidth="1" min="50" max="50"/>
+    <col width="15" customWidth="1" min="51" max="51"/>
+    <col width="15" customWidth="1" min="52" max="52"/>
+    <col width="15" customWidth="1" min="53" max="53"/>
+    <col width="15" customWidth="1" min="54" max="54"/>
+    <col width="15" customWidth="1" min="59" max="59"/>
+    <col width="15" customWidth="1" min="60" max="60"/>
+    <col width="15" customWidth="1" min="61" max="61"/>
+    <col width="15" customWidth="1" min="62" max="62"/>
+    <col width="15" customWidth="1" min="63" max="63"/>
+    <col width="15" customWidth="1" min="68" max="68"/>
+    <col width="15" customWidth="1" min="69" max="69"/>
+    <col width="15" customWidth="1" min="70" max="70"/>
+    <col width="15" customWidth="1" min="71" max="71"/>
+    <col width="15" customWidth="1" min="72" max="72"/>
+    <col width="15" customWidth="1" min="77" max="77"/>
+    <col width="15" customWidth="1" min="78" max="78"/>
+    <col width="15" customWidth="1" min="79" max="79"/>
+    <col width="15" customWidth="1" min="80" max="80"/>
+    <col width="15" customWidth="1" min="81" max="81"/>
+    <col width="15" customWidth="1" min="86" max="86"/>
+    <col width="15" customWidth="1" min="87" max="87"/>
+    <col width="15" customWidth="1" min="88" max="88"/>
+    <col width="15" customWidth="1" min="89" max="89"/>
+    <col width="15" customWidth="1" min="90" max="90"/>
+    <col width="15" customWidth="1" min="95" max="95"/>
+    <col width="15" customWidth="1" min="96" max="96"/>
+    <col width="15" customWidth="1" min="97" max="97"/>
+    <col width="15" customWidth="1" min="98" max="98"/>
+    <col width="15" customWidth="1" min="99" max="99"/>
+    <col width="15" customWidth="1" min="104" max="104"/>
+    <col width="15" customWidth="1" min="105" max="105"/>
+    <col width="15" customWidth="1" min="106" max="106"/>
+    <col width="15" customWidth="1" min="107" max="107"/>
+    <col width="15" customWidth="1" min="108" max="108"/>
+    <col width="15" customWidth="1" min="113" max="113"/>
+    <col width="15" customWidth="1" min="114" max="114"/>
+    <col width="15" customWidth="1" min="115" max="115"/>
+    <col width="15" customWidth="1" min="116" max="116"/>
+    <col width="15" customWidth="1" min="117" max="117"/>
+    <col width="15" customWidth="1" min="122" max="122"/>
+    <col width="15" customWidth="1" min="123" max="123"/>
+    <col width="15" customWidth="1" min="124" max="124"/>
+    <col width="15" customWidth="1" min="125" max="125"/>
+    <col width="15" customWidth="1" min="126" max="126"/>
+    <col width="15" customWidth="1" min="131" max="131"/>
+    <col width="15" customWidth="1" min="132" max="132"/>
+    <col width="15" customWidth="1" min="133" max="133"/>
+    <col width="15" customWidth="1" min="134" max="134"/>
+    <col width="15" customWidth="1" min="135" max="135"/>
+    <col width="15" customWidth="1" min="140" max="140"/>
+    <col width="15" customWidth="1" min="141" max="141"/>
+    <col width="15" customWidth="1" min="142" max="142"/>
+    <col width="15" customWidth="1" min="143" max="143"/>
+    <col width="15" customWidth="1" min="144" max="144"/>
   </cols>
   <sheetData>
     <row r="1" ht="63.6" customFormat="1" customHeight="1" s="100">
@@ -35076,12 +38473,342 @@
           <t>CAD版本</t>
         </is>
       </c>
+      <c r="AY1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号位号</t>
+        </is>
+      </c>
+      <c r="AZ1" s="195" t="inlineStr">
+        <is>
+          <t>CAD扩展码</t>
+        </is>
+      </c>
+      <c r="BA1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号说明</t>
+        </is>
+      </c>
+      <c r="BB1" s="195" t="inlineStr">
+        <is>
+          <t>CAD安全分级/分组</t>
+        </is>
+      </c>
+      <c r="BC1" s="195" t="inlineStr">
+        <is>
+          <t>CAD图号</t>
+        </is>
+      </c>
+      <c r="BD1" s="195" t="inlineStr">
+        <is>
+          <t>CAD版本</t>
+        </is>
+      </c>
+      <c r="BH1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号位号</t>
+        </is>
+      </c>
+      <c r="BI1" s="195" t="inlineStr">
+        <is>
+          <t>CAD扩展码</t>
+        </is>
+      </c>
+      <c r="BJ1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号说明</t>
+        </is>
+      </c>
+      <c r="BK1" s="195" t="inlineStr">
+        <is>
+          <t>CAD安全分级/分组</t>
+        </is>
+      </c>
+      <c r="BL1" s="195" t="inlineStr">
+        <is>
+          <t>CAD图号</t>
+        </is>
+      </c>
+      <c r="BM1" s="195" t="inlineStr">
+        <is>
+          <t>CAD版本</t>
+        </is>
+      </c>
+      <c r="BQ1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号位号</t>
+        </is>
+      </c>
+      <c r="BR1" s="195" t="inlineStr">
+        <is>
+          <t>CAD扩展码</t>
+        </is>
+      </c>
+      <c r="BS1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号说明</t>
+        </is>
+      </c>
+      <c r="BT1" s="195" t="inlineStr">
+        <is>
+          <t>CAD安全分级/分组</t>
+        </is>
+      </c>
+      <c r="BU1" s="195" t="inlineStr">
+        <is>
+          <t>CAD图号</t>
+        </is>
+      </c>
+      <c r="BV1" s="195" t="inlineStr">
+        <is>
+          <t>CAD版本</t>
+        </is>
+      </c>
+      <c r="BZ1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号位号</t>
+        </is>
+      </c>
+      <c r="CA1" s="195" t="inlineStr">
+        <is>
+          <t>CAD扩展码</t>
+        </is>
+      </c>
+      <c r="CB1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号说明</t>
+        </is>
+      </c>
+      <c r="CC1" s="195" t="inlineStr">
+        <is>
+          <t>CAD安全分级/分组</t>
+        </is>
+      </c>
+      <c r="CD1" s="195" t="inlineStr">
+        <is>
+          <t>CAD图号</t>
+        </is>
+      </c>
+      <c r="CE1" s="195" t="inlineStr">
+        <is>
+          <t>CAD版本</t>
+        </is>
+      </c>
+      <c r="CI1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号位号</t>
+        </is>
+      </c>
+      <c r="CJ1" s="195" t="inlineStr">
+        <is>
+          <t>CAD扩展码</t>
+        </is>
+      </c>
+      <c r="CK1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号说明</t>
+        </is>
+      </c>
+      <c r="CL1" s="195" t="inlineStr">
+        <is>
+          <t>CAD安全分级/分组</t>
+        </is>
+      </c>
+      <c r="CM1" s="195" t="inlineStr">
+        <is>
+          <t>CAD图号</t>
+        </is>
+      </c>
+      <c r="CN1" s="195" t="inlineStr">
+        <is>
+          <t>CAD版本</t>
+        </is>
+      </c>
+      <c r="CR1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号位号</t>
+        </is>
+      </c>
+      <c r="CS1" s="195" t="inlineStr">
+        <is>
+          <t>CAD扩展码</t>
+        </is>
+      </c>
+      <c r="CT1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号说明</t>
+        </is>
+      </c>
+      <c r="CU1" s="195" t="inlineStr">
+        <is>
+          <t>CAD安全分级/分组</t>
+        </is>
+      </c>
+      <c r="CV1" s="195" t="inlineStr">
+        <is>
+          <t>CAD图号</t>
+        </is>
+      </c>
+      <c r="CW1" s="195" t="inlineStr">
+        <is>
+          <t>CAD版本</t>
+        </is>
+      </c>
+      <c r="DA1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号位号</t>
+        </is>
+      </c>
+      <c r="DB1" s="195" t="inlineStr">
+        <is>
+          <t>CAD扩展码</t>
+        </is>
+      </c>
+      <c r="DC1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号说明</t>
+        </is>
+      </c>
+      <c r="DD1" s="195" t="inlineStr">
+        <is>
+          <t>CAD安全分级/分组</t>
+        </is>
+      </c>
+      <c r="DE1" s="195" t="inlineStr">
+        <is>
+          <t>CAD图号</t>
+        </is>
+      </c>
+      <c r="DF1" s="195" t="inlineStr">
+        <is>
+          <t>CAD版本</t>
+        </is>
+      </c>
+      <c r="DJ1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号位号</t>
+        </is>
+      </c>
+      <c r="DK1" s="195" t="inlineStr">
+        <is>
+          <t>CAD扩展码</t>
+        </is>
+      </c>
+      <c r="DL1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号说明</t>
+        </is>
+      </c>
+      <c r="DM1" s="195" t="inlineStr">
+        <is>
+          <t>CAD安全分级/分组</t>
+        </is>
+      </c>
+      <c r="DN1" s="195" t="inlineStr">
+        <is>
+          <t>CAD图号</t>
+        </is>
+      </c>
+      <c r="DO1" s="195" t="inlineStr">
+        <is>
+          <t>CAD版本</t>
+        </is>
+      </c>
+      <c r="DS1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号位号</t>
+        </is>
+      </c>
+      <c r="DT1" s="195" t="inlineStr">
+        <is>
+          <t>CAD扩展码</t>
+        </is>
+      </c>
+      <c r="DU1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号说明</t>
+        </is>
+      </c>
+      <c r="DV1" s="195" t="inlineStr">
+        <is>
+          <t>CAD安全分级/分组</t>
+        </is>
+      </c>
+      <c r="DW1" s="195" t="inlineStr">
+        <is>
+          <t>CAD图号</t>
+        </is>
+      </c>
+      <c r="DX1" s="195" t="inlineStr">
+        <is>
+          <t>CAD版本</t>
+        </is>
+      </c>
+      <c r="EB1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号位号</t>
+        </is>
+      </c>
+      <c r="EC1" s="195" t="inlineStr">
+        <is>
+          <t>CAD扩展码</t>
+        </is>
+      </c>
+      <c r="ED1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号说明</t>
+        </is>
+      </c>
+      <c r="EE1" s="195" t="inlineStr">
+        <is>
+          <t>CAD安全分级/分组</t>
+        </is>
+      </c>
+      <c r="EF1" s="195" t="inlineStr">
+        <is>
+          <t>CAD图号</t>
+        </is>
+      </c>
+      <c r="EG1" s="195" t="inlineStr">
+        <is>
+          <t>CAD版本</t>
+        </is>
+      </c>
+      <c r="EK1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号位号</t>
+        </is>
+      </c>
+      <c r="EL1" s="195" t="inlineStr">
+        <is>
+          <t>CAD扩展码</t>
+        </is>
+      </c>
+      <c r="EM1" s="195" t="inlineStr">
+        <is>
+          <t>CAD信号说明</t>
+        </is>
+      </c>
+      <c r="EN1" s="195" t="inlineStr">
+        <is>
+          <t>CAD安全分级/分组</t>
+        </is>
+      </c>
+      <c r="EO1" s="195" t="inlineStr">
+        <is>
+          <t>CAD图号</t>
+        </is>
+      </c>
+      <c r="EP1" s="195" t="inlineStr">
+        <is>
+          <t>CAD版本</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="34.5" customFormat="1" customHeight="1" s="100">
       <c r="A2" s="67" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="203" t="inlineStr">
+      <c r="B2" s="67" t="inlineStr">
         <is>
           <t>3TFL201SY</t>
         </is>
@@ -35091,7 +38818,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D2" s="201" t="inlineStr">
+      <c r="D2" s="206" t="inlineStr">
         <is>
           <t xml:space="preserve">3A低加抽汽逆止阀允许开
 3A LP HTR EXTRN STM N.R.V. PERMIT OPEN </t>
@@ -35128,7 +38855,7 @@
       <c r="K2" s="78" t="n"/>
       <c r="L2" s="78" t="n"/>
       <c r="M2" s="78" t="n"/>
-      <c r="N2" s="204" t="n"/>
+      <c r="N2" s="207" t="n"/>
       <c r="O2" s="78" t="inlineStr">
         <is>
           <t>NA</t>
@@ -35157,11 +38884,6 @@
         </is>
       </c>
       <c r="T2" s="67" t="n"/>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>TFL201SY</t>
-        </is>
-      </c>
       <c r="Z2" t="inlineStr">
         <is>
           <t>无描述</t>
@@ -35173,6 +38895,61 @@
         </is>
       </c>
       <c r="AR2" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BS2" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CB2" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CK2" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CT2" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DC2" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DL2" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DU2" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="ED2" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EM2" t="inlineStr">
         <is>
           <t>无描述</t>
         </is>
@@ -35182,7 +38959,7 @@
       <c r="A3" s="67" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="203" t="inlineStr">
+      <c r="B3" s="67" t="inlineStr">
         <is>
           <t>3TFL203SY</t>
         </is>
@@ -35192,7 +38969,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D3" s="205" t="inlineStr">
+      <c r="D3" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">3A低加抽汽逆止阀保护关
 3A LP HTR EXTRN STM N.R.V. PROTECT CLS </t>
@@ -35258,11 +39035,6 @@
         </is>
       </c>
       <c r="T3" s="67" t="n"/>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>TFL203SY</t>
-        </is>
-      </c>
       <c r="Z3" t="inlineStr">
         <is>
           <t>至TSD
@@ -35276,6 +39048,72 @@
         </is>
       </c>
       <c r="AR3" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="BJ3" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="BS3" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="CB3" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="CK3" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="CT3" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="DC3" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="DL3" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="DU3" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="ED3" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="EM3" t="inlineStr">
         <is>
           <t>至TSD
 TO TSDX</t>
@@ -35286,7 +39124,7 @@
       <c r="A4" s="67" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="203" t="inlineStr">
+      <c r="B4" s="67" t="inlineStr">
         <is>
           <t>3TFL202SY</t>
         </is>
@@ -35296,7 +39134,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D4" s="201" t="inlineStr">
+      <c r="D4" s="206" t="inlineStr">
         <is>
           <t xml:space="preserve">4A低加抽汽逆止阀允许开
 4A LP HTR EXTRN STM N.R.V. PERMIT OPEN </t>
@@ -35362,11 +39200,6 @@
         </is>
       </c>
       <c r="T4" s="67" t="n"/>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>TFL202SY</t>
-        </is>
-      </c>
       <c r="Z4" t="inlineStr">
         <is>
           <t>无描述</t>
@@ -35378,6 +39211,61 @@
         </is>
       </c>
       <c r="AR4" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BA4" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BS4" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CB4" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CK4" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CT4" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DC4" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DL4" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DU4" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="ED4" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EM4" t="inlineStr">
         <is>
           <t>无描述</t>
         </is>
@@ -35387,7 +39275,7 @@
       <c r="A5" s="67" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="203" t="inlineStr">
+      <c r="B5" s="67" t="inlineStr">
         <is>
           <t>3TFL204SY</t>
         </is>
@@ -35397,7 +39285,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D5" s="205" t="inlineStr">
+      <c r="D5" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">4A低加抽汽逆止阀保护关
 4A LP HTR EXTRN STM N.R.V. PROTECT CLS </t>
@@ -35463,11 +39351,6 @@
         </is>
       </c>
       <c r="T5" s="67" t="n"/>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>TFL204SY</t>
-        </is>
-      </c>
       <c r="Z5" t="inlineStr">
         <is>
           <t>至TSD
@@ -35481,6 +39364,72 @@
         </is>
       </c>
       <c r="AR5" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="BA5" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="BJ5" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="BS5" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="CB5" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="CK5" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="CT5" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="DC5" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="DL5" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="DU5" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="ED5" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="EM5" t="inlineStr">
         <is>
           <t>至TSD
 TO TSDX</t>
@@ -35491,7 +39440,7 @@
       <c r="A6" s="67" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="203" t="inlineStr">
+      <c r="B6" s="67" t="inlineStr">
         <is>
           <t>3TFL205SY</t>
         </is>
@@ -35501,7 +39450,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D6" s="201" t="inlineStr">
+      <c r="D6" s="206" t="inlineStr">
         <is>
           <t xml:space="preserve">3B低加抽汽逆止阀允许开
 3B LP HTR EXTRN STM N.R.V. PERMIT OPEN </t>
@@ -35567,11 +39516,6 @@
         </is>
       </c>
       <c r="T6" s="67" t="n"/>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>TFL205SY</t>
-        </is>
-      </c>
       <c r="Z6" t="inlineStr">
         <is>
           <t>无描述</t>
@@ -35583,6 +39527,61 @@
         </is>
       </c>
       <c r="AR6" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BA6" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BJ6" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BS6" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CB6" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CK6" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CT6" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DC6" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DL6" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DU6" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="ED6" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EM6" t="inlineStr">
         <is>
           <t>无描述</t>
         </is>
@@ -35592,7 +39591,7 @@
       <c r="A7" s="67" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="203" t="inlineStr">
+      <c r="B7" s="67" t="inlineStr">
         <is>
           <t>3TFL207SY</t>
         </is>
@@ -35602,7 +39601,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D7" s="205" t="inlineStr">
+      <c r="D7" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">3B低加抽汽逆止阀保护关
 3B LP HTR EXTRN STM N.R.V. PROTECT CLS </t>
@@ -35668,11 +39667,6 @@
         </is>
       </c>
       <c r="T7" s="67" t="n"/>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>TFL207SY</t>
-        </is>
-      </c>
       <c r="Z7" t="inlineStr">
         <is>
           <t>至TSD
@@ -35686,6 +39680,72 @@
         </is>
       </c>
       <c r="AR7" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="BA7" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="BJ7" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="BS7" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="CB7" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="CK7" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="CT7" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="DC7" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="DL7" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="DU7" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="ED7" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="EM7" t="inlineStr">
         <is>
           <t>至TSD
 TO TSDX</t>
@@ -35696,7 +39756,7 @@
       <c r="A8" s="67" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="203" t="inlineStr">
+      <c r="B8" s="67" t="inlineStr">
         <is>
           <t>3TFL206SY</t>
         </is>
@@ -35706,7 +39766,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D8" s="201" t="inlineStr">
+      <c r="D8" s="206" t="inlineStr">
         <is>
           <t xml:space="preserve">4B低加抽汽逆止阀允许开
 4B LP HTR EXTRN STM N.R.V. PERMIT OPEN </t>
@@ -35772,11 +39832,6 @@
         </is>
       </c>
       <c r="T8" s="67" t="n"/>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>TFL206SY</t>
-        </is>
-      </c>
       <c r="Z8" t="inlineStr">
         <is>
           <t>无描述</t>
@@ -35788,6 +39843,61 @@
         </is>
       </c>
       <c r="AR8" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BA8" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BJ8" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BS8" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CB8" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CK8" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CT8" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DC8" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DL8" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DU8" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="ED8" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EM8" t="inlineStr">
         <is>
           <t>无描述</t>
         </is>
@@ -35797,7 +39907,7 @@
       <c r="A9" s="67" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="203" t="inlineStr">
+      <c r="B9" s="67" t="inlineStr">
         <is>
           <t>3TFL208SY</t>
         </is>
@@ -35807,7 +39917,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D9" s="205" t="inlineStr">
+      <c r="D9" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">4B低加抽汽逆止阀保护关
 4B LP HTR EXTRN STM N.R.V. PROTECT CLS </t>
@@ -35873,11 +39983,6 @@
         </is>
       </c>
       <c r="T9" s="67" t="n"/>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>TFL208SY</t>
-        </is>
-      </c>
       <c r="Z9" t="inlineStr">
         <is>
           <t>至TSD
@@ -35891,6 +39996,72 @@
         </is>
       </c>
       <c r="AR9" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="BA9" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="BJ9" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="BS9" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="CB9" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="CK9" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="CT9" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="DC9" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="DL9" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="DU9" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="ED9" t="inlineStr">
+        <is>
+          <t>至TSD
+TO TSDX</t>
+        </is>
+      </c>
+      <c r="EM9" t="inlineStr">
         <is>
           <t>至TSD
 TO TSDX</t>
@@ -35911,7 +40082,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D10" s="205" t="inlineStr">
+      <c r="D10" s="208" t="inlineStr">
         <is>
           <t>4A低加抽汽逆止阀全关
 4A LP HTR EXTRN STM N.R.V. CLS POSN</t>
@@ -35948,7 +40119,7 @@
       <c r="K10" s="93" t="n"/>
       <c r="L10" s="93" t="n"/>
       <c r="M10" s="93" t="n"/>
-      <c r="N10" s="206" t="n"/>
+      <c r="N10" s="209" t="n"/>
       <c r="O10" s="67" t="inlineStr">
         <is>
           <t>NA</t>
@@ -35982,6 +40153,61 @@
         </is>
       </c>
       <c r="AR10" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BA10" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BJ10" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BS10" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CB10" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CK10" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CT10" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DC10" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DL10" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DU10" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="ED10" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EM10" t="inlineStr">
         <is>
           <t>无描述</t>
         </is>
@@ -36001,7 +40227,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D11" s="205" t="inlineStr">
+      <c r="D11" s="208" t="inlineStr">
         <is>
           <t>4A低加抽汽逆止阀全开
 4A LP HTR EXTRN STM N.R.V. OPEN POSN</t>
@@ -36038,7 +40264,7 @@
       <c r="K11" s="93" t="n"/>
       <c r="L11" s="93" t="n"/>
       <c r="M11" s="93" t="n"/>
-      <c r="N11" s="206" t="n"/>
+      <c r="N11" s="209" t="n"/>
       <c r="O11" s="67" t="inlineStr">
         <is>
           <t>NA</t>
@@ -36072,6 +40298,61 @@
         </is>
       </c>
       <c r="AR11" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BA11" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BJ11" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BS11" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CB11" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CK11" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CT11" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DC11" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DL11" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DU11" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="ED11" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EM11" t="inlineStr">
         <is>
           <t>无描述</t>
         </is>
@@ -36091,7 +40372,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D12" s="205" t="inlineStr">
+      <c r="D12" s="208" t="inlineStr">
         <is>
           <t>4B低加抽汽逆止阀全关
 4B LP HTR EXTRN STM N.R.V. CLS POSN</t>
@@ -36128,7 +40409,7 @@
       <c r="K12" s="93" t="n"/>
       <c r="L12" s="93" t="n"/>
       <c r="M12" s="93" t="n"/>
-      <c r="N12" s="206" t="n"/>
+      <c r="N12" s="209" t="n"/>
       <c r="O12" s="67" t="inlineStr">
         <is>
           <t>NA</t>
@@ -36162,6 +40443,61 @@
         </is>
       </c>
       <c r="AR12" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BA12" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BJ12" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BS12" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CB12" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CK12" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CT12" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DC12" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DL12" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DU12" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="ED12" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EM12" t="inlineStr">
         <is>
           <t>无描述</t>
         </is>
@@ -36181,7 +40517,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D13" s="205" t="inlineStr">
+      <c r="D13" s="208" t="inlineStr">
         <is>
           <t>4B低加抽汽逆止阀全开
 4B LP HTR EXTRN STM N.R.V. OPEN POSN</t>
@@ -36218,7 +40554,7 @@
       <c r="K13" s="93" t="n"/>
       <c r="L13" s="93" t="n"/>
       <c r="M13" s="93" t="n"/>
-      <c r="N13" s="206" t="n"/>
+      <c r="N13" s="209" t="n"/>
       <c r="O13" s="67" t="inlineStr">
         <is>
           <t>NA</t>
@@ -36252,6 +40588,61 @@
         </is>
       </c>
       <c r="AR13" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BA13" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BJ13" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BS13" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CB13" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CK13" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CT13" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DC13" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DL13" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DU13" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="ED13" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EM13" t="inlineStr">
         <is>
           <t>无描述</t>
         </is>
@@ -36271,7 +40662,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D14" s="205" t="inlineStr">
+      <c r="D14" s="208" t="inlineStr">
         <is>
           <t>3A低加抽汽逆止阀全关
 3A LP HTR EXTRN STM N.R.V. CLS POSN</t>
@@ -36308,7 +40699,7 @@
       <c r="K14" s="93" t="n"/>
       <c r="L14" s="93" t="n"/>
       <c r="M14" s="93" t="n"/>
-      <c r="N14" s="206" t="n"/>
+      <c r="N14" s="209" t="n"/>
       <c r="O14" s="67" t="inlineStr">
         <is>
           <t>NA</t>
@@ -36342,6 +40733,61 @@
         </is>
       </c>
       <c r="AR14" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BA14" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BJ14" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BS14" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CB14" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CK14" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CT14" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DC14" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DL14" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DU14" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="ED14" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EM14" t="inlineStr">
         <is>
           <t>无描述</t>
         </is>
@@ -36361,7 +40807,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D15" s="205" t="inlineStr">
+      <c r="D15" s="208" t="inlineStr">
         <is>
           <t>3A低加抽汽逆止阀全开
 3A LP HTR EXTRN STM N.R.V. OPEN POSN</t>
@@ -36398,7 +40844,7 @@
       <c r="K15" s="93" t="n"/>
       <c r="L15" s="93" t="n"/>
       <c r="M15" s="93" t="n"/>
-      <c r="N15" s="206" t="n"/>
+      <c r="N15" s="209" t="n"/>
       <c r="O15" s="67" t="inlineStr">
         <is>
           <t>NA</t>
@@ -36432,6 +40878,61 @@
         </is>
       </c>
       <c r="AR15" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BA15" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BJ15" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BS15" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CB15" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CK15" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CT15" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DC15" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DL15" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DU15" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="ED15" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EM15" t="inlineStr">
         <is>
           <t>无描述</t>
         </is>
@@ -36451,7 +40952,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D16" s="205" t="inlineStr">
+      <c r="D16" s="208" t="inlineStr">
         <is>
           <t>3B低加抽汽逆止阀全关
 3B LP HTR EXTRN STM N.R.V. CLS POSN</t>
@@ -36488,7 +40989,7 @@
       <c r="K16" s="93" t="n"/>
       <c r="L16" s="93" t="n"/>
       <c r="M16" s="93" t="n"/>
-      <c r="N16" s="206" t="n"/>
+      <c r="N16" s="209" t="n"/>
       <c r="O16" s="67" t="inlineStr">
         <is>
           <t>NA</t>
@@ -36522,6 +41023,61 @@
         </is>
       </c>
       <c r="AR16" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BA16" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BJ16" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BS16" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CB16" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CK16" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CT16" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DC16" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DL16" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DU16" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="ED16" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EM16" t="inlineStr">
         <is>
           <t>无描述</t>
         </is>
@@ -36541,7 +41097,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D17" s="205" t="inlineStr">
+      <c r="D17" s="208" t="inlineStr">
         <is>
           <t>3B低加抽汽逆止阀全开
 3B LP HTR EXTRN STM N.R.V. OPEN POSN</t>
@@ -36578,7 +41134,7 @@
       <c r="K17" s="93" t="n"/>
       <c r="L17" s="93" t="n"/>
       <c r="M17" s="93" t="n"/>
-      <c r="N17" s="206" t="n"/>
+      <c r="N17" s="209" t="n"/>
       <c r="O17" s="67" t="inlineStr">
         <is>
           <t>NA</t>
@@ -36612,6 +41168,61 @@
         </is>
       </c>
       <c r="AR17" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BA17" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BJ17" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="BS17" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CB17" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CK17" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="CT17" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DC17" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DL17" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="DU17" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="ED17" t="inlineStr">
+        <is>
+          <t>无描述</t>
+        </is>
+      </c>
+      <c r="EM17" t="inlineStr">
         <is>
           <t>无描述</t>
         </is>
@@ -36619,7 +41230,7 @@
     </row>
     <row r="20" ht="20.1" customHeight="1">
       <c r="G20" s="101" t="n"/>
-      <c r="H20" s="207" t="n"/>
+      <c r="H20" s="210" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:T17"/>
@@ -36662,16 +41273,16 @@
   <sheetData>
     <row r="1" ht="9.75" customHeight="1">
       <c r="A1" s="131" t="n"/>
-      <c r="B1" s="208" t="n"/>
-      <c r="C1" s="208" t="n"/>
-      <c r="D1" s="208" t="n"/>
-      <c r="E1" s="208" t="n"/>
-      <c r="F1" s="208" t="n"/>
-      <c r="G1" s="208" t="n"/>
-      <c r="H1" s="208" t="n"/>
-      <c r="I1" s="208" t="n"/>
-      <c r="J1" s="208" t="n"/>
-      <c r="K1" s="208" t="n"/>
+      <c r="B1" s="211" t="n"/>
+      <c r="C1" s="211" t="n"/>
+      <c r="D1" s="211" t="n"/>
+      <c r="E1" s="211" t="n"/>
+      <c r="F1" s="211" t="n"/>
+      <c r="G1" s="211" t="n"/>
+      <c r="H1" s="211" t="n"/>
+      <c r="I1" s="211" t="n"/>
+      <c r="J1" s="211" t="n"/>
+      <c r="K1" s="211" t="n"/>
     </row>
     <row r="2" ht="15" customHeight="1">
       <c r="A2" s="51" t="n"/>
@@ -37059,16 +41670,16 @@
     </row>
     <row r="31" ht="27.75" customHeight="1">
       <c r="A31" s="136" t="n"/>
-      <c r="B31" s="208" t="n"/>
-      <c r="C31" s="208" t="n"/>
-      <c r="D31" s="208" t="n"/>
-      <c r="E31" s="208" t="n"/>
-      <c r="F31" s="208" t="n"/>
-      <c r="G31" s="208" t="n"/>
-      <c r="H31" s="208" t="n"/>
-      <c r="I31" s="208" t="n"/>
-      <c r="J31" s="208" t="n"/>
-      <c r="K31" s="208" t="n"/>
+      <c r="B31" s="211" t="n"/>
+      <c r="C31" s="211" t="n"/>
+      <c r="D31" s="211" t="n"/>
+      <c r="E31" s="211" t="n"/>
+      <c r="F31" s="211" t="n"/>
+      <c r="G31" s="211" t="n"/>
+      <c r="H31" s="211" t="n"/>
+      <c r="I31" s="211" t="n"/>
+      <c r="J31" s="211" t="n"/>
+      <c r="K31" s="211" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -37312,40 +41923,40 @@
       <c r="L14" s="4" t="n"/>
     </row>
     <row r="15" ht="24" customFormat="1" customHeight="1" s="28" thickBot="1">
-      <c r="A15" s="209" t="inlineStr">
+      <c r="A15" s="212" t="inlineStr">
         <is>
           <t>文件编码</t>
         </is>
       </c>
-      <c r="B15" s="210" t="n"/>
+      <c r="B15" s="213" t="n"/>
       <c r="C15" s="187" t="inlineStr">
         <is>
           <t>HL317TFL001E05045GN</t>
         </is>
       </c>
-      <c r="D15" s="211" t="n"/>
-      <c r="E15" s="211" t="n"/>
-      <c r="F15" s="211" t="n"/>
-      <c r="G15" s="211" t="n"/>
-      <c r="H15" s="211" t="n"/>
-      <c r="I15" s="211" t="n"/>
-      <c r="J15" s="211" t="n"/>
-      <c r="K15" s="211" t="n"/>
-      <c r="L15" s="212" t="n"/>
+      <c r="D15" s="214" t="n"/>
+      <c r="E15" s="214" t="n"/>
+      <c r="F15" s="214" t="n"/>
+      <c r="G15" s="214" t="n"/>
+      <c r="H15" s="214" t="n"/>
+      <c r="I15" s="214" t="n"/>
+      <c r="J15" s="214" t="n"/>
+      <c r="K15" s="214" t="n"/>
+      <c r="L15" s="215" t="n"/>
     </row>
     <row r="16" ht="18" customHeight="1">
-      <c r="A16" s="213" t="n"/>
-      <c r="B16" s="214" t="n"/>
-      <c r="C16" s="214" t="n"/>
-      <c r="D16" s="214" t="n"/>
-      <c r="E16" s="214" t="n"/>
-      <c r="F16" s="214" t="n"/>
-      <c r="G16" s="214" t="n"/>
-      <c r="H16" s="214" t="n"/>
-      <c r="I16" s="214" t="n"/>
-      <c r="J16" s="214" t="n"/>
-      <c r="K16" s="214" t="n"/>
-      <c r="L16" s="215" t="n"/>
+      <c r="A16" s="216" t="n"/>
+      <c r="B16" s="217" t="n"/>
+      <c r="C16" s="217" t="n"/>
+      <c r="D16" s="217" t="n"/>
+      <c r="E16" s="217" t="n"/>
+      <c r="F16" s="217" t="n"/>
+      <c r="G16" s="217" t="n"/>
+      <c r="H16" s="217" t="n"/>
+      <c r="I16" s="217" t="n"/>
+      <c r="J16" s="217" t="n"/>
+      <c r="K16" s="217" t="n"/>
+      <c r="L16" s="218" t="n"/>
       <c r="M16" s="28" t="n"/>
       <c r="N16" s="28" t="n"/>
       <c r="O16" s="28" t="n"/>
@@ -37360,8 +41971,8 @@
       <c r="X16" s="28" t="n"/>
     </row>
     <row r="17" ht="18" customHeight="1">
-      <c r="A17" s="216" t="n"/>
-      <c r="L17" s="217" t="n"/>
+      <c r="A17" s="219" t="n"/>
+      <c r="L17" s="220" t="n"/>
       <c r="M17" s="28" t="n"/>
       <c r="N17" s="28" t="n"/>
       <c r="O17" s="28" t="n"/>
@@ -37376,22 +41987,22 @@
       <c r="X17" s="28" t="n"/>
     </row>
     <row r="18" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A18" s="218" t="inlineStr">
+      <c r="A18" s="221" t="inlineStr">
         <is>
           <t>工程设计综合资质甲级A131000025  工程勘察综合类甲级B131000025</t>
         </is>
       </c>
-      <c r="B18" s="219" t="n"/>
-      <c r="C18" s="219" t="n"/>
-      <c r="D18" s="219" t="n"/>
-      <c r="E18" s="219" t="n"/>
-      <c r="F18" s="219" t="n"/>
-      <c r="G18" s="219" t="n"/>
-      <c r="H18" s="219" t="n"/>
-      <c r="I18" s="219" t="n"/>
-      <c r="J18" s="219" t="n"/>
-      <c r="K18" s="219" t="n"/>
-      <c r="L18" s="220" t="n"/>
+      <c r="B18" s="222" t="n"/>
+      <c r="C18" s="222" t="n"/>
+      <c r="D18" s="222" t="n"/>
+      <c r="E18" s="222" t="n"/>
+      <c r="F18" s="222" t="n"/>
+      <c r="G18" s="222" t="n"/>
+      <c r="H18" s="222" t="n"/>
+      <c r="I18" s="222" t="n"/>
+      <c r="J18" s="222" t="n"/>
+      <c r="K18" s="222" t="n"/>
+      <c r="L18" s="223" t="n"/>
       <c r="M18" s="28" t="n"/>
       <c r="N18" s="28" t="n"/>
       <c r="O18" s="28" t="n"/>
@@ -37406,12 +42017,12 @@
       <c r="X18" s="28" t="n"/>
     </row>
     <row r="19" ht="24.95" customFormat="1" customHeight="1" s="29" thickBot="1">
-      <c r="A19" s="221" t="inlineStr">
+      <c r="A19" s="224" t="inlineStr">
         <is>
           <t>卷册检索号</t>
         </is>
       </c>
-      <c r="B19" s="222" t="n"/>
+      <c r="B19" s="225" t="n"/>
       <c r="C19" s="173" t="inlineStr">
         <is>
           <t>30</t>
@@ -37422,7 +42033,7 @@
           <t>H801202S</t>
         </is>
       </c>
-      <c r="E19" s="210" t="n"/>
+      <c r="E19" s="213" t="n"/>
       <c r="F19" s="173" t="inlineStr">
         <is>
           <t>KK</t>
@@ -37438,14 +42049,14 @@
           <t>TFL</t>
         </is>
       </c>
-      <c r="I19" s="210" t="n"/>
+      <c r="I19" s="213" t="n"/>
       <c r="J19" s="173" t="inlineStr">
         <is>
           <t>01</t>
         </is>
       </c>
-      <c r="K19" s="211" t="n"/>
-      <c r="L19" s="210" t="n"/>
+      <c r="K19" s="214" t="n"/>
+      <c r="L19" s="213" t="n"/>
       <c r="M19" s="28" t="n"/>
       <c r="N19" s="28" t="n"/>
       <c r="O19" s="28" t="n"/>
@@ -37460,19 +42071,19 @@
       <c r="X19" s="28" t="n"/>
     </row>
     <row r="20" ht="24.95" customFormat="1" customHeight="1" s="29" thickBot="1">
-      <c r="A20" s="223" t="inlineStr">
+      <c r="A20" s="226" t="inlineStr">
         <is>
           <t>文本编号</t>
         </is>
       </c>
-      <c r="B20" s="210" t="n"/>
+      <c r="B20" s="213" t="n"/>
       <c r="C20" s="173" t="inlineStr">
         <is>
           <t>H801202S</t>
         </is>
       </c>
-      <c r="D20" s="211" t="n"/>
-      <c r="E20" s="210" t="n"/>
+      <c r="D20" s="214" t="n"/>
+      <c r="E20" s="213" t="n"/>
       <c r="F20" s="173" t="inlineStr">
         <is>
           <t>KK</t>
@@ -37488,7 +42099,7 @@
           <t>TFL</t>
         </is>
       </c>
-      <c r="I20" s="210" t="n"/>
+      <c r="I20" s="213" t="n"/>
       <c r="J20" s="173" t="inlineStr">
         <is>
           <t>01</t>
@@ -37510,9 +42121,9 @@
       <c r="B21" s="170" t="n"/>
       <c r="C21" s="7" t="n"/>
       <c r="D21" s="170" t="n"/>
-      <c r="E21" s="224" t="n"/>
-      <c r="F21" s="224" t="n"/>
-      <c r="G21" s="225" t="n"/>
+      <c r="E21" s="227" t="n"/>
+      <c r="F21" s="227" t="n"/>
+      <c r="G21" s="228" t="n"/>
       <c r="H21" s="170" t="n"/>
       <c r="I21" s="170" t="n"/>
       <c r="J21" s="170" t="n"/>
@@ -37524,9 +42135,9 @@
       <c r="B22" s="171" t="n"/>
       <c r="C22" s="11" t="n"/>
       <c r="D22" s="171" t="n"/>
-      <c r="E22" s="226" t="n"/>
-      <c r="F22" s="226" t="n"/>
-      <c r="G22" s="227" t="n"/>
+      <c r="E22" s="229" t="n"/>
+      <c r="F22" s="229" t="n"/>
+      <c r="G22" s="230" t="n"/>
       <c r="H22" s="171" t="n"/>
       <c r="I22" s="171" t="n"/>
       <c r="J22" s="171" t="n"/>
@@ -37538,9 +42149,9 @@
       <c r="B23" s="171" t="n"/>
       <c r="C23" s="11" t="n"/>
       <c r="D23" s="171" t="n"/>
-      <c r="E23" s="226" t="n"/>
-      <c r="F23" s="226" t="n"/>
-      <c r="G23" s="227" t="n"/>
+      <c r="E23" s="229" t="n"/>
+      <c r="F23" s="229" t="n"/>
+      <c r="G23" s="230" t="n"/>
       <c r="H23" s="171" t="n"/>
       <c r="I23" s="171" t="n"/>
       <c r="J23" s="171" t="n"/>
@@ -37552,9 +42163,9 @@
       <c r="B24" s="171" t="n"/>
       <c r="C24" s="11" t="n"/>
       <c r="D24" s="171" t="n"/>
-      <c r="E24" s="226" t="n"/>
-      <c r="F24" s="226" t="n"/>
-      <c r="G24" s="227" t="n"/>
+      <c r="E24" s="229" t="n"/>
+      <c r="F24" s="229" t="n"/>
+      <c r="G24" s="230" t="n"/>
       <c r="H24" s="171" t="n"/>
       <c r="I24" s="171" t="n"/>
       <c r="J24" s="171" t="n"/>
@@ -37566,9 +42177,9 @@
       <c r="B25" s="14" t="n"/>
       <c r="C25" s="11" t="n"/>
       <c r="D25" s="171" t="n"/>
-      <c r="E25" s="226" t="n"/>
-      <c r="F25" s="226" t="n"/>
-      <c r="G25" s="227" t="n"/>
+      <c r="E25" s="229" t="n"/>
+      <c r="F25" s="229" t="n"/>
+      <c r="G25" s="230" t="n"/>
       <c r="H25" s="14" t="n"/>
       <c r="I25" s="14" t="n"/>
       <c r="J25" s="15" t="n"/>
@@ -37580,9 +42191,9 @@
       <c r="B26" s="14" t="n"/>
       <c r="C26" s="11" t="n"/>
       <c r="D26" s="171" t="n"/>
-      <c r="E26" s="226" t="n"/>
-      <c r="F26" s="226" t="n"/>
-      <c r="G26" s="227" t="n"/>
+      <c r="E26" s="229" t="n"/>
+      <c r="F26" s="229" t="n"/>
+      <c r="G26" s="230" t="n"/>
       <c r="H26" s="14" t="n"/>
       <c r="I26" s="14" t="n"/>
       <c r="J26" s="15" t="n"/>
@@ -37608,9 +42219,9 @@
           <t>新编</t>
         </is>
       </c>
-      <c r="E27" s="226" t="n"/>
-      <c r="F27" s="226" t="n"/>
-      <c r="G27" s="227" t="n"/>
+      <c r="E27" s="229" t="n"/>
+      <c r="F27" s="229" t="n"/>
+      <c r="G27" s="230" t="n"/>
       <c r="H27" s="70" t="n"/>
       <c r="I27" s="70" t="n"/>
       <c r="J27" s="70" t="n"/>
@@ -37638,7 +42249,7 @@
           <t>修改内容摘要</t>
         </is>
       </c>
-      <c r="G28" s="228" t="n"/>
+      <c r="G28" s="231" t="n"/>
       <c r="H28" s="21" t="inlineStr">
         <is>
           <t>设计</t>
@@ -37654,7 +42265,7 @@
           <t xml:space="preserve"> 审核</t>
         </is>
       </c>
-      <c r="K28" s="228" t="n"/>
+      <c r="K28" s="231" t="n"/>
       <c r="L28" s="22" t="inlineStr">
         <is>
           <t>批准</t>
@@ -37662,22 +42273,22 @@
       </c>
     </row>
     <row r="29" ht="27" customFormat="1" customHeight="1" s="31" thickBot="1">
-      <c r="A29" s="229" t="inlineStr">
+      <c r="A29" s="232" t="inlineStr">
         <is>
           <t>本文件的知识产权为华东电力设计院有限公司所有，任何单位或个人未经许可不得复制和使用，违者将被追究法律责任。</t>
         </is>
       </c>
-      <c r="B29" s="211" t="n"/>
-      <c r="C29" s="211" t="n"/>
-      <c r="D29" s="211" t="n"/>
-      <c r="E29" s="211" t="n"/>
-      <c r="F29" s="211" t="n"/>
-      <c r="G29" s="211" t="n"/>
-      <c r="H29" s="211" t="n"/>
-      <c r="I29" s="211" t="n"/>
-      <c r="J29" s="211" t="n"/>
-      <c r="K29" s="211" t="n"/>
-      <c r="L29" s="212" t="n"/>
+      <c r="B29" s="214" t="n"/>
+      <c r="C29" s="214" t="n"/>
+      <c r="D29" s="214" t="n"/>
+      <c r="E29" s="214" t="n"/>
+      <c r="F29" s="214" t="n"/>
+      <c r="G29" s="214" t="n"/>
+      <c r="H29" s="214" t="n"/>
+      <c r="I29" s="214" t="n"/>
+      <c r="J29" s="214" t="n"/>
+      <c r="K29" s="214" t="n"/>
+      <c r="L29" s="215" t="n"/>
     </row>
     <row r="30" ht="27" customHeight="1">
       <c r="A30" s="143" t="inlineStr">
@@ -37685,25 +42296,25 @@
           <t>批准</t>
         </is>
       </c>
-      <c r="B30" s="226" t="n"/>
-      <c r="C30" s="227" t="n"/>
-      <c r="D30" s="230" t="inlineStr">
+      <c r="B30" s="229" t="n"/>
+      <c r="C30" s="230" t="n"/>
+      <c r="D30" s="233" t="inlineStr">
         <is>
           <t>2021.2.22</t>
         </is>
       </c>
-      <c r="E30" s="224" t="n"/>
-      <c r="F30" s="225" t="n"/>
-      <c r="G30" s="231" t="inlineStr">
+      <c r="E30" s="227" t="n"/>
+      <c r="F30" s="228" t="n"/>
+      <c r="G30" s="234" t="inlineStr">
         <is>
           <t>#3机组低压给水加热器系统（TFL）  DCS I/O清单</t>
         </is>
       </c>
-      <c r="H30" s="232" t="n"/>
-      <c r="I30" s="232" t="n"/>
-      <c r="J30" s="232" t="n"/>
-      <c r="K30" s="232" t="n"/>
-      <c r="L30" s="233" t="n"/>
+      <c r="H30" s="235" t="n"/>
+      <c r="I30" s="235" t="n"/>
+      <c r="J30" s="235" t="n"/>
+      <c r="K30" s="235" t="n"/>
+      <c r="L30" s="236" t="n"/>
     </row>
     <row r="31" ht="27" customHeight="1">
       <c r="A31" s="143" t="inlineStr">
@@ -37711,25 +42322,25 @@
           <t>审核</t>
         </is>
       </c>
-      <c r="B31" s="232" t="n"/>
-      <c r="C31" s="234" t="n"/>
-      <c r="D31" s="235" t="inlineStr">
+      <c r="B31" s="235" t="n"/>
+      <c r="C31" s="237" t="n"/>
+      <c r="D31" s="238" t="inlineStr">
         <is>
           <t>2021.2.19</t>
         </is>
       </c>
-      <c r="E31" s="226" t="n"/>
-      <c r="F31" s="227" t="n"/>
-      <c r="L31" s="217" t="n"/>
+      <c r="E31" s="229" t="n"/>
+      <c r="F31" s="230" t="n"/>
+      <c r="L31" s="220" t="n"/>
     </row>
     <row r="32" ht="24.95" customHeight="1">
-      <c r="A32" s="236" t="n"/>
-      <c r="B32" s="208" t="n"/>
-      <c r="C32" s="237" t="n"/>
+      <c r="A32" s="239" t="n"/>
+      <c r="B32" s="211" t="n"/>
+      <c r="C32" s="240" t="n"/>
       <c r="D32" s="164" t="n"/>
-      <c r="E32" s="226" t="n"/>
-      <c r="F32" s="227" t="n"/>
-      <c r="L32" s="217" t="n"/>
+      <c r="E32" s="229" t="n"/>
+      <c r="F32" s="230" t="n"/>
+      <c r="L32" s="220" t="n"/>
     </row>
     <row r="33" ht="24.95" customHeight="1">
       <c r="A33" s="143" t="inlineStr">
@@ -37737,16 +42348,16 @@
           <t>校核</t>
         </is>
       </c>
-      <c r="B33" s="226" t="n"/>
-      <c r="C33" s="227" t="n"/>
-      <c r="D33" s="235" t="inlineStr">
+      <c r="B33" s="229" t="n"/>
+      <c r="C33" s="230" t="n"/>
+      <c r="D33" s="238" t="inlineStr">
         <is>
           <t>2021.2.19</t>
         </is>
       </c>
-      <c r="E33" s="226" t="n"/>
-      <c r="F33" s="227" t="n"/>
-      <c r="L33" s="217" t="n"/>
+      <c r="E33" s="229" t="n"/>
+      <c r="F33" s="230" t="n"/>
+      <c r="L33" s="220" t="n"/>
     </row>
     <row r="34" ht="27" customHeight="1">
       <c r="A34" s="143" t="inlineStr">
@@ -37754,21 +42365,21 @@
           <t>设计</t>
         </is>
       </c>
-      <c r="B34" s="226" t="n"/>
-      <c r="C34" s="227" t="n"/>
-      <c r="D34" s="235" t="inlineStr">
+      <c r="B34" s="229" t="n"/>
+      <c r="C34" s="230" t="n"/>
+      <c r="D34" s="238" t="inlineStr">
         <is>
           <t>2021.2.18</t>
         </is>
       </c>
-      <c r="E34" s="226" t="n"/>
-      <c r="F34" s="227" t="n"/>
-      <c r="G34" s="208" t="n"/>
-      <c r="H34" s="208" t="n"/>
-      <c r="I34" s="208" t="n"/>
-      <c r="J34" s="208" t="n"/>
-      <c r="K34" s="208" t="n"/>
-      <c r="L34" s="238" t="n"/>
+      <c r="E34" s="229" t="n"/>
+      <c r="F34" s="230" t="n"/>
+      <c r="G34" s="211" t="n"/>
+      <c r="H34" s="211" t="n"/>
+      <c r="I34" s="211" t="n"/>
+      <c r="J34" s="211" t="n"/>
+      <c r="K34" s="211" t="n"/>
+      <c r="L34" s="241" t="n"/>
     </row>
     <row r="35" ht="24.95" customFormat="1" customHeight="1" s="30" thickBot="1">
       <c r="A35" s="23" t="inlineStr">
@@ -37779,7 +42390,7 @@
       <c r="B35" s="148" t="n">
         <v>2021.2</v>
       </c>
-      <c r="C35" s="239" t="n"/>
+      <c r="C35" s="242" t="n"/>
       <c r="D35" s="73" t="inlineStr">
         <is>
           <t>状态</t>
@@ -37790,21 +42401,21 @@
           <t>CFC</t>
         </is>
       </c>
-      <c r="F35" s="240" t="n"/>
+      <c r="F35" s="243" t="n"/>
       <c r="G35" s="139" t="inlineStr">
         <is>
           <t>版号</t>
         </is>
       </c>
-      <c r="H35" s="241" t="n"/>
-      <c r="I35" s="239" t="n"/>
-      <c r="J35" s="242" t="inlineStr">
+      <c r="H35" s="244" t="n"/>
+      <c r="I35" s="242" t="n"/>
+      <c r="J35" s="245" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="K35" s="241" t="n"/>
-      <c r="L35" s="243" t="n"/>
+      <c r="K35" s="244" t="n"/>
+      <c r="L35" s="246" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="39">
